--- a/tool_results/results_analysed_numbers.xlsx
+++ b/tool_results/results_analysed_numbers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theresa\Dropbox\TU Master\Diplomarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Diplom\Minimal Contracts\Templating\tool_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28F54CC-3744-43B5-B096-F1618E9FA512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50654D7A-4A7F-4DBC-955F-F61EEC62AB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
+    <workbookView xWindow="-3612" yWindow="-17280" windowWidth="15360" windowHeight="16680" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="99">
   <si>
     <t>mythril</t>
   </si>
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>341, 369</t>
+  </si>
+  <si>
+    <t>confuzzius</t>
+  </si>
+  <si>
+    <t>28, 29</t>
+  </si>
+  <si>
+    <t>209, 210, 211, 212, 243, 244, 245, 246</t>
   </si>
 </sst>
 </file>
@@ -833,11 +842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816DF791-3565-4C2A-B7A1-D8086056D11D}">
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L139" sqref="L139:L142"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L289" sqref="L289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5715,7 +5724,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="193" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C193" s="21" t="s">
         <v>9</v>
       </c>
@@ -5738,7 +5747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C194" s="22" t="s">
         <v>10</v>
       </c>
@@ -5761,7 +5770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C195" s="22" t="s">
         <v>11</v>
       </c>
@@ -5784,7 +5793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C196" s="22" t="s">
         <v>28</v>
       </c>
@@ -5807,7 +5816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C197" s="22" t="s">
         <v>13</v>
       </c>
@@ -5830,7 +5839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C198" s="23" t="s">
         <v>20</v>
       </c>
@@ -5853,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C199" s="24" t="s">
         <v>21</v>
       </c>
@@ -5882,7 +5891,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C200" s="24" t="s">
         <v>22</v>
       </c>
@@ -5911,7 +5920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="201" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C201" s="24" t="s">
         <v>29</v>
       </c>
@@ -5940,7 +5949,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="202" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C202" s="24" t="s">
         <v>24</v>
       </c>
@@ -5968,6 +5977,2317 @@
       <c r="L202" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>96</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" s="25">
+        <v>35</v>
+      </c>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="2"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" s="26">
+        <v>10</v>
+      </c>
+      <c r="F205" s="3">
+        <v>0</v>
+      </c>
+      <c r="G205" s="3">
+        <v>2</v>
+      </c>
+      <c r="H205" s="3">
+        <v>0</v>
+      </c>
+      <c r="I205" s="3">
+        <v>8</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L205" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C206" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206" s="26">
+        <v>10</v>
+      </c>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="2"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C207" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E207" s="26">
+        <v>10</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="3">
+        <v>0</v>
+      </c>
+      <c r="I207" s="3">
+        <v>10</v>
+      </c>
+      <c r="J207" s="2"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C208" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" s="26">
+        <v>5</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>1</v>
+      </c>
+      <c r="H208" s="3">
+        <v>0</v>
+      </c>
+      <c r="I208" s="3">
+        <v>4</v>
+      </c>
+      <c r="J208" s="2">
+        <v>310</v>
+      </c>
+      <c r="L208" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C209" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="27">
+        <f>3*8+4</f>
+        <v>28</v>
+      </c>
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="7"/>
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C210" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" s="28">
+        <v>8</v>
+      </c>
+      <c r="F210" s="4">
+        <v>8</v>
+      </c>
+      <c r="G210" s="4">
+        <v>0</v>
+      </c>
+      <c r="H210" s="4">
+        <v>0</v>
+      </c>
+      <c r="I210" s="4">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C211" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211" s="28">
+        <v>8</v>
+      </c>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="2"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C212" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="28">
+        <v>8</v>
+      </c>
+      <c r="F212" s="4">
+        <v>0</v>
+      </c>
+      <c r="G212" s="4">
+        <v>0</v>
+      </c>
+      <c r="H212" s="4">
+        <v>8</v>
+      </c>
+      <c r="I212" s="4">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C213" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" s="28">
+        <v>4</v>
+      </c>
+      <c r="F213" s="4">
+        <v>4</v>
+      </c>
+      <c r="G213" s="4">
+        <v>0</v>
+      </c>
+      <c r="H213" s="4">
+        <v>0</v>
+      </c>
+      <c r="I213" s="4">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C214" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214" s="25">
+        <v>28</v>
+      </c>
+      <c r="F214" s="5">
+        <v>0</v>
+      </c>
+      <c r="G214" s="5">
+        <v>0</v>
+      </c>
+      <c r="H214" s="5">
+        <v>0</v>
+      </c>
+      <c r="I214" s="5">
+        <v>28</v>
+      </c>
+      <c r="J214" s="2"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C215" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E215" s="26">
+        <v>8</v>
+      </c>
+      <c r="F215" s="3">
+        <v>0</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="3">
+        <v>0</v>
+      </c>
+      <c r="I215" s="3">
+        <v>8</v>
+      </c>
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C216" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E216" s="26">
+        <v>8</v>
+      </c>
+      <c r="F216" s="3">
+        <v>0</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0</v>
+      </c>
+      <c r="I216" s="3">
+        <v>8</v>
+      </c>
+      <c r="J216" s="2"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C217" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E217" s="26">
+        <v>8</v>
+      </c>
+      <c r="F217" s="3">
+        <v>0</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="3">
+        <v>0</v>
+      </c>
+      <c r="I217" s="3">
+        <v>8</v>
+      </c>
+      <c r="J217" s="2"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C218" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E218" s="26">
+        <v>4</v>
+      </c>
+      <c r="F218" s="3">
+        <v>0</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0</v>
+      </c>
+      <c r="H218" s="3">
+        <v>0</v>
+      </c>
+      <c r="I218" s="3">
+        <v>4</v>
+      </c>
+      <c r="J218" s="2"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C219" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E219" s="27">
+        <v>28</v>
+      </c>
+      <c r="F219" s="7">
+        <v>0</v>
+      </c>
+      <c r="G219" s="7">
+        <v>0</v>
+      </c>
+      <c r="H219" s="7">
+        <v>28</v>
+      </c>
+      <c r="I219" s="7">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C220" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E220" s="28">
+        <v>8</v>
+      </c>
+      <c r="F220" s="4">
+        <v>0</v>
+      </c>
+      <c r="G220" s="4">
+        <v>0</v>
+      </c>
+      <c r="H220" s="4">
+        <v>8</v>
+      </c>
+      <c r="I220" s="4">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C221" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E221" s="28">
+        <v>8</v>
+      </c>
+      <c r="F221" s="4">
+        <v>0</v>
+      </c>
+      <c r="G221" s="4">
+        <v>0</v>
+      </c>
+      <c r="H221" s="4">
+        <v>8</v>
+      </c>
+      <c r="I221" s="4">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C222" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E222" s="28">
+        <v>8</v>
+      </c>
+      <c r="F222" s="4">
+        <v>0</v>
+      </c>
+      <c r="G222" s="4">
+        <v>0</v>
+      </c>
+      <c r="H222" s="4">
+        <v>8</v>
+      </c>
+      <c r="I222" s="4">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C223" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E223" s="28">
+        <v>4</v>
+      </c>
+      <c r="F223" s="4">
+        <v>0</v>
+      </c>
+      <c r="G223" s="4">
+        <v>0</v>
+      </c>
+      <c r="H223" s="4">
+        <v>4</v>
+      </c>
+      <c r="I223" s="4">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B224" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" s="29">
+        <v>35</v>
+      </c>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="2"/>
+    </row>
+    <row r="225" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C225" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225" s="30">
+        <v>10</v>
+      </c>
+      <c r="F225" s="10">
+        <v>0</v>
+      </c>
+      <c r="G225" s="10">
+        <v>2</v>
+      </c>
+      <c r="H225" s="10">
+        <v>0</v>
+      </c>
+      <c r="I225" s="10">
+        <v>8</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L225" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C226" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" s="30">
+        <v>10</v>
+      </c>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="2"/>
+    </row>
+    <row r="227" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C227" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" s="30">
+        <v>10</v>
+      </c>
+      <c r="F227" s="10">
+        <v>0</v>
+      </c>
+      <c r="G227" s="10">
+        <v>0</v>
+      </c>
+      <c r="H227" s="10">
+        <v>0</v>
+      </c>
+      <c r="I227" s="10">
+        <v>10</v>
+      </c>
+      <c r="J227" s="2"/>
+    </row>
+    <row r="228" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C228" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" s="30">
+        <v>5</v>
+      </c>
+      <c r="F228" s="10">
+        <v>0</v>
+      </c>
+      <c r="G228" s="10">
+        <v>1</v>
+      </c>
+      <c r="H228" s="10">
+        <v>0</v>
+      </c>
+      <c r="I228" s="10">
+        <v>4</v>
+      </c>
+      <c r="J228" s="2">
+        <v>247</v>
+      </c>
+      <c r="L228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C229" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" s="31">
+        <v>28</v>
+      </c>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="2"/>
+    </row>
+    <row r="230" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C230" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E230" s="32">
+        <v>8</v>
+      </c>
+      <c r="F230" s="12">
+        <v>8</v>
+      </c>
+      <c r="G230" s="12">
+        <v>0</v>
+      </c>
+      <c r="H230" s="12">
+        <v>0</v>
+      </c>
+      <c r="I230" s="12">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2"/>
+    </row>
+    <row r="231" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C231" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" s="32">
+        <v>8</v>
+      </c>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C232" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" s="32">
+        <v>8</v>
+      </c>
+      <c r="F232" s="12">
+        <v>0</v>
+      </c>
+      <c r="G232" s="12">
+        <v>0</v>
+      </c>
+      <c r="H232" s="12">
+        <v>8</v>
+      </c>
+      <c r="I232" s="12">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="233" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C233" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" s="32">
+        <v>4</v>
+      </c>
+      <c r="F233" s="12">
+        <v>4</v>
+      </c>
+      <c r="G233" s="12">
+        <v>0</v>
+      </c>
+      <c r="H233" s="12">
+        <v>0</v>
+      </c>
+      <c r="I233" s="12">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2"/>
+    </row>
+    <row r="234" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C234" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E234" s="29">
+        <v>28</v>
+      </c>
+      <c r="F234" s="9">
+        <v>0</v>
+      </c>
+      <c r="G234" s="9">
+        <v>0</v>
+      </c>
+      <c r="H234" s="9">
+        <v>0</v>
+      </c>
+      <c r="I234" s="9">
+        <v>28</v>
+      </c>
+      <c r="J234" s="2"/>
+    </row>
+    <row r="235" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C235" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E235" s="30">
+        <v>8</v>
+      </c>
+      <c r="F235" s="10">
+        <v>0</v>
+      </c>
+      <c r="G235" s="10">
+        <v>0</v>
+      </c>
+      <c r="H235" s="10">
+        <v>0</v>
+      </c>
+      <c r="I235" s="10">
+        <v>8</v>
+      </c>
+      <c r="J235" s="2"/>
+    </row>
+    <row r="236" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C236" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E236" s="30">
+        <v>8</v>
+      </c>
+      <c r="F236" s="10">
+        <v>0</v>
+      </c>
+      <c r="G236" s="10">
+        <v>0</v>
+      </c>
+      <c r="H236" s="10">
+        <v>0</v>
+      </c>
+      <c r="I236" s="10">
+        <v>8</v>
+      </c>
+      <c r="J236" s="2"/>
+    </row>
+    <row r="237" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C237" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E237" s="30">
+        <v>8</v>
+      </c>
+      <c r="F237" s="10">
+        <v>0</v>
+      </c>
+      <c r="G237" s="10">
+        <v>0</v>
+      </c>
+      <c r="H237" s="10">
+        <v>0</v>
+      </c>
+      <c r="I237" s="10">
+        <v>8</v>
+      </c>
+      <c r="J237" s="2"/>
+    </row>
+    <row r="238" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C238" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E238" s="30">
+        <v>4</v>
+      </c>
+      <c r="F238" s="10">
+        <v>0</v>
+      </c>
+      <c r="G238" s="10">
+        <v>0</v>
+      </c>
+      <c r="H238" s="10">
+        <v>0</v>
+      </c>
+      <c r="I238" s="10">
+        <v>4</v>
+      </c>
+      <c r="J238" s="2"/>
+    </row>
+    <row r="239" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C239" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E239" s="31">
+        <v>28</v>
+      </c>
+      <c r="F239" s="11">
+        <v>0</v>
+      </c>
+      <c r="G239" s="11">
+        <v>0</v>
+      </c>
+      <c r="H239" s="11">
+        <v>28</v>
+      </c>
+      <c r="I239" s="11">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2"/>
+    </row>
+    <row r="240" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C240" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E240" s="32">
+        <v>8</v>
+      </c>
+      <c r="F240" s="12">
+        <v>0</v>
+      </c>
+      <c r="G240" s="12">
+        <v>0</v>
+      </c>
+      <c r="H240" s="12">
+        <v>8</v>
+      </c>
+      <c r="I240" s="12">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2"/>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C241" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E241" s="32">
+        <v>8</v>
+      </c>
+      <c r="F241" s="12">
+        <v>0</v>
+      </c>
+      <c r="G241" s="12">
+        <v>0</v>
+      </c>
+      <c r="H241" s="12">
+        <v>8</v>
+      </c>
+      <c r="I241" s="12">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2"/>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C242" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E242" s="32">
+        <v>8</v>
+      </c>
+      <c r="F242" s="12">
+        <v>0</v>
+      </c>
+      <c r="G242" s="12">
+        <v>0</v>
+      </c>
+      <c r="H242" s="12">
+        <v>8</v>
+      </c>
+      <c r="I242" s="12">
+        <v>0</v>
+      </c>
+      <c r="J242" s="2"/>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C243" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E243" s="32">
+        <v>4</v>
+      </c>
+      <c r="F243" s="12">
+        <v>0</v>
+      </c>
+      <c r="G243" s="12">
+        <v>0</v>
+      </c>
+      <c r="H243" s="12">
+        <v>4</v>
+      </c>
+      <c r="I243" s="12">
+        <v>0</v>
+      </c>
+      <c r="J243" s="2"/>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B244" t="s">
+        <v>33</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" s="33">
+        <v>35</v>
+      </c>
+      <c r="F244" s="13"/>
+      <c r="G244" s="13"/>
+      <c r="H244" s="13"/>
+      <c r="I244" s="13"/>
+      <c r="J244" s="2"/>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C245" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E245" s="34">
+        <v>10</v>
+      </c>
+      <c r="F245" s="14">
+        <v>0</v>
+      </c>
+      <c r="G245" s="14">
+        <v>2</v>
+      </c>
+      <c r="H245" s="14">
+        <v>0</v>
+      </c>
+      <c r="I245" s="14">
+        <v>8</v>
+      </c>
+      <c r="J245" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L245" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C246" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E246" s="34">
+        <v>10</v>
+      </c>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="14"/>
+      <c r="J246" s="2"/>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C247" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E247" s="34">
+        <v>10</v>
+      </c>
+      <c r="F247" s="14">
+        <v>0</v>
+      </c>
+      <c r="G247" s="14">
+        <v>0</v>
+      </c>
+      <c r="H247" s="14">
+        <v>0</v>
+      </c>
+      <c r="I247" s="14">
+        <v>10</v>
+      </c>
+      <c r="J247" s="2"/>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C248" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E248" s="34">
+        <v>5</v>
+      </c>
+      <c r="F248" s="14">
+        <v>0</v>
+      </c>
+      <c r="G248" s="14">
+        <v>1</v>
+      </c>
+      <c r="H248" s="14">
+        <v>0</v>
+      </c>
+      <c r="I248" s="14">
+        <v>4</v>
+      </c>
+      <c r="J248" s="2">
+        <v>184</v>
+      </c>
+      <c r="L248" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C249" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D249" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="35">
+        <v>28</v>
+      </c>
+      <c r="F249" s="15"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="15"/>
+      <c r="I249" s="15"/>
+      <c r="J249" s="2"/>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C250" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250" s="36">
+        <v>8</v>
+      </c>
+      <c r="F250" s="16">
+        <v>8</v>
+      </c>
+      <c r="G250" s="16">
+        <v>0</v>
+      </c>
+      <c r="H250" s="16">
+        <v>0</v>
+      </c>
+      <c r="I250" s="16">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2"/>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C251" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D251" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E251" s="36">
+        <v>8</v>
+      </c>
+      <c r="F251" s="16"/>
+      <c r="G251" s="16"/>
+      <c r="H251" s="16"/>
+      <c r="I251" s="16"/>
+      <c r="J251" s="2"/>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C252" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D252" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E252" s="36">
+        <v>8</v>
+      </c>
+      <c r="F252" s="16">
+        <v>0</v>
+      </c>
+      <c r="G252" s="16">
+        <v>0</v>
+      </c>
+      <c r="H252" s="16">
+        <v>8</v>
+      </c>
+      <c r="I252" s="16">
+        <v>0</v>
+      </c>
+      <c r="J252" s="2"/>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C253" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" s="36">
+        <v>4</v>
+      </c>
+      <c r="F253" s="16">
+        <v>4</v>
+      </c>
+      <c r="G253" s="16">
+        <v>0</v>
+      </c>
+      <c r="H253" s="16">
+        <v>0</v>
+      </c>
+      <c r="I253" s="16">
+        <v>0</v>
+      </c>
+      <c r="J253" s="2"/>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C254" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E254" s="33">
+        <v>28</v>
+      </c>
+      <c r="F254" s="13">
+        <v>0</v>
+      </c>
+      <c r="G254" s="13">
+        <v>0</v>
+      </c>
+      <c r="H254" s="13">
+        <v>0</v>
+      </c>
+      <c r="I254" s="13">
+        <v>28</v>
+      </c>
+      <c r="J254" s="2"/>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C255" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E255" s="34">
+        <v>8</v>
+      </c>
+      <c r="F255" s="14">
+        <v>0</v>
+      </c>
+      <c r="G255" s="14">
+        <v>0</v>
+      </c>
+      <c r="H255" s="14">
+        <v>0</v>
+      </c>
+      <c r="I255" s="14">
+        <v>8</v>
+      </c>
+      <c r="J255" s="2"/>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C256" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E256" s="34">
+        <v>8</v>
+      </c>
+      <c r="F256" s="14">
+        <v>0</v>
+      </c>
+      <c r="G256" s="14">
+        <v>0</v>
+      </c>
+      <c r="H256" s="14">
+        <v>0</v>
+      </c>
+      <c r="I256" s="14">
+        <v>8</v>
+      </c>
+      <c r="J256" s="2"/>
+    </row>
+    <row r="257" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C257" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E257" s="34">
+        <v>8</v>
+      </c>
+      <c r="F257" s="14">
+        <v>0</v>
+      </c>
+      <c r="G257" s="14">
+        <v>0</v>
+      </c>
+      <c r="H257" s="14">
+        <v>0</v>
+      </c>
+      <c r="I257" s="14">
+        <v>8</v>
+      </c>
+      <c r="J257" s="2"/>
+    </row>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C258" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E258" s="34">
+        <v>4</v>
+      </c>
+      <c r="F258" s="14">
+        <v>0</v>
+      </c>
+      <c r="G258" s="14">
+        <v>0</v>
+      </c>
+      <c r="H258" s="14">
+        <v>0</v>
+      </c>
+      <c r="I258" s="14">
+        <v>4</v>
+      </c>
+      <c r="J258" s="2"/>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C259" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D259" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E259" s="35">
+        <v>28</v>
+      </c>
+      <c r="F259" s="15">
+        <v>0</v>
+      </c>
+      <c r="G259" s="15">
+        <v>0</v>
+      </c>
+      <c r="H259" s="15">
+        <v>28</v>
+      </c>
+      <c r="I259" s="15">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2"/>
+    </row>
+    <row r="260" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C260" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E260" s="36">
+        <v>8</v>
+      </c>
+      <c r="F260" s="16">
+        <v>0</v>
+      </c>
+      <c r="G260" s="16">
+        <v>0</v>
+      </c>
+      <c r="H260" s="16">
+        <v>8</v>
+      </c>
+      <c r="I260" s="16">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2"/>
+    </row>
+    <row r="261" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C261" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D261" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E261" s="36">
+        <v>8</v>
+      </c>
+      <c r="F261" s="16">
+        <v>0</v>
+      </c>
+      <c r="G261" s="16">
+        <v>0</v>
+      </c>
+      <c r="H261" s="16">
+        <v>8</v>
+      </c>
+      <c r="I261" s="16">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2"/>
+    </row>
+    <row r="262" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C262" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E262" s="36">
+        <v>8</v>
+      </c>
+      <c r="F262" s="16">
+        <v>0</v>
+      </c>
+      <c r="G262" s="16">
+        <v>0</v>
+      </c>
+      <c r="H262" s="16">
+        <v>8</v>
+      </c>
+      <c r="I262" s="16">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2"/>
+    </row>
+    <row r="263" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C263" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D263" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E263" s="36">
+        <v>4</v>
+      </c>
+      <c r="F263" s="16">
+        <v>0</v>
+      </c>
+      <c r="G263" s="16">
+        <v>0</v>
+      </c>
+      <c r="H263" s="16">
+        <v>4</v>
+      </c>
+      <c r="I263" s="16">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2"/>
+    </row>
+    <row r="264" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B264" t="s">
+        <v>37</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" s="37">
+        <v>35</v>
+      </c>
+      <c r="F264" s="17"/>
+      <c r="G264" s="17"/>
+      <c r="H264" s="17"/>
+      <c r="I264" s="17"/>
+      <c r="J264" s="2"/>
+    </row>
+    <row r="265" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C265" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E265" s="38">
+        <v>10</v>
+      </c>
+      <c r="F265" s="18">
+        <v>0</v>
+      </c>
+      <c r="G265" s="18">
+        <v>2</v>
+      </c>
+      <c r="H265" s="18">
+        <v>0</v>
+      </c>
+      <c r="I265" s="18">
+        <v>8</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L265" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C266" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D266" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E266" s="38">
+        <v>10</v>
+      </c>
+      <c r="F266" s="18"/>
+      <c r="G266" s="18"/>
+      <c r="H266" s="18"/>
+      <c r="I266" s="18"/>
+      <c r="J266" s="2"/>
+    </row>
+    <row r="267" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C267" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E267" s="38">
+        <v>10</v>
+      </c>
+      <c r="F267" s="18">
+        <v>0</v>
+      </c>
+      <c r="G267" s="18">
+        <v>0</v>
+      </c>
+      <c r="H267" s="18">
+        <v>0</v>
+      </c>
+      <c r="I267" s="18">
+        <v>10</v>
+      </c>
+      <c r="J267" s="2"/>
+    </row>
+    <row r="268" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C268" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E268" s="38">
+        <v>5</v>
+      </c>
+      <c r="F268" s="18">
+        <v>0</v>
+      </c>
+      <c r="G268" s="18">
+        <v>1</v>
+      </c>
+      <c r="H268" s="18">
+        <v>0</v>
+      </c>
+      <c r="I268" s="18">
+        <v>4</v>
+      </c>
+      <c r="J268" s="2">
+        <v>121</v>
+      </c>
+      <c r="L268" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C269" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D269" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" s="39">
+        <v>28</v>
+      </c>
+      <c r="F269" s="19"/>
+      <c r="G269" s="19"/>
+      <c r="H269" s="19"/>
+      <c r="I269" s="19"/>
+      <c r="J269" s="2"/>
+    </row>
+    <row r="270" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C270" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270" s="40">
+        <v>8</v>
+      </c>
+      <c r="F270" s="20">
+        <v>8</v>
+      </c>
+      <c r="G270" s="20">
+        <v>0</v>
+      </c>
+      <c r="H270" s="20">
+        <v>0</v>
+      </c>
+      <c r="I270" s="20">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2"/>
+    </row>
+    <row r="271" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C271" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" s="40">
+        <v>8</v>
+      </c>
+      <c r="F271" s="20"/>
+      <c r="G271" s="20"/>
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+      <c r="J271" s="2"/>
+    </row>
+    <row r="272" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C272" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D272" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E272" s="40">
+        <v>8</v>
+      </c>
+      <c r="F272" s="20">
+        <v>0</v>
+      </c>
+      <c r="G272" s="20">
+        <v>0</v>
+      </c>
+      <c r="H272" s="20">
+        <v>8</v>
+      </c>
+      <c r="I272" s="20">
+        <v>0</v>
+      </c>
+      <c r="J272" s="2"/>
+    </row>
+    <row r="273" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C273" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D273" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E273" s="40">
+        <v>4</v>
+      </c>
+      <c r="F273" s="20">
+        <v>4</v>
+      </c>
+      <c r="G273" s="20">
+        <v>0</v>
+      </c>
+      <c r="H273" s="20">
+        <v>0</v>
+      </c>
+      <c r="I273" s="20">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2"/>
+    </row>
+    <row r="274" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C274" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E274" s="37">
+        <v>28</v>
+      </c>
+      <c r="F274" s="17">
+        <v>0</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+      <c r="H274" s="17">
+        <v>0</v>
+      </c>
+      <c r="I274" s="17">
+        <v>28</v>
+      </c>
+      <c r="J274" s="2"/>
+    </row>
+    <row r="275" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C275" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E275" s="38">
+        <v>8</v>
+      </c>
+      <c r="F275" s="18">
+        <v>0</v>
+      </c>
+      <c r="G275" s="18">
+        <v>0</v>
+      </c>
+      <c r="H275" s="18">
+        <v>0</v>
+      </c>
+      <c r="I275" s="18">
+        <v>8</v>
+      </c>
+      <c r="J275" s="2"/>
+    </row>
+    <row r="276" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C276" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E276" s="38">
+        <v>8</v>
+      </c>
+      <c r="F276" s="18">
+        <v>0</v>
+      </c>
+      <c r="G276" s="18">
+        <v>0</v>
+      </c>
+      <c r="H276" s="18">
+        <v>0</v>
+      </c>
+      <c r="I276" s="18">
+        <v>8</v>
+      </c>
+      <c r="J276" s="2"/>
+    </row>
+    <row r="277" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C277" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E277" s="38">
+        <v>8</v>
+      </c>
+      <c r="F277" s="18">
+        <v>0</v>
+      </c>
+      <c r="G277" s="18">
+        <v>0</v>
+      </c>
+      <c r="H277" s="18">
+        <v>0</v>
+      </c>
+      <c r="I277" s="18">
+        <v>8</v>
+      </c>
+      <c r="J277" s="2"/>
+    </row>
+    <row r="278" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C278" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E278" s="38">
+        <v>4</v>
+      </c>
+      <c r="F278" s="18">
+        <v>0</v>
+      </c>
+      <c r="G278" s="18">
+        <v>0</v>
+      </c>
+      <c r="H278" s="18">
+        <v>0</v>
+      </c>
+      <c r="I278" s="18">
+        <v>4</v>
+      </c>
+      <c r="J278" s="2"/>
+    </row>
+    <row r="279" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C279" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D279" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E279" s="39">
+        <v>28</v>
+      </c>
+      <c r="F279" s="19">
+        <v>0</v>
+      </c>
+      <c r="G279" s="19">
+        <v>0</v>
+      </c>
+      <c r="H279" s="19">
+        <v>28</v>
+      </c>
+      <c r="I279" s="19">
+        <v>0</v>
+      </c>
+      <c r="J279" s="2"/>
+    </row>
+    <row r="280" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C280" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E280" s="40">
+        <v>8</v>
+      </c>
+      <c r="F280" s="20">
+        <v>0</v>
+      </c>
+      <c r="G280" s="20">
+        <v>0</v>
+      </c>
+      <c r="H280" s="20">
+        <v>8</v>
+      </c>
+      <c r="I280" s="20">
+        <v>0</v>
+      </c>
+      <c r="J280" s="2"/>
+    </row>
+    <row r="281" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C281" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E281" s="40">
+        <v>8</v>
+      </c>
+      <c r="F281" s="20">
+        <v>0</v>
+      </c>
+      <c r="G281" s="20">
+        <v>0</v>
+      </c>
+      <c r="H281" s="20">
+        <v>8</v>
+      </c>
+      <c r="I281" s="20">
+        <v>0</v>
+      </c>
+      <c r="J281" s="2"/>
+    </row>
+    <row r="282" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C282" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E282" s="40">
+        <v>8</v>
+      </c>
+      <c r="F282" s="20">
+        <v>0</v>
+      </c>
+      <c r="G282" s="20">
+        <v>0</v>
+      </c>
+      <c r="H282" s="20">
+        <v>8</v>
+      </c>
+      <c r="I282" s="20">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2"/>
+    </row>
+    <row r="283" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C283" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D283" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E283" s="40">
+        <v>4</v>
+      </c>
+      <c r="F283" s="20">
+        <v>0</v>
+      </c>
+      <c r="G283" s="20">
+        <v>0</v>
+      </c>
+      <c r="H283" s="20">
+        <v>4</v>
+      </c>
+      <c r="I283" s="20">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2"/>
+    </row>
+    <row r="284" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B284" t="s">
+        <v>41</v>
+      </c>
+      <c r="C284" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E284" s="41">
+        <v>35</v>
+      </c>
+      <c r="F284" s="21"/>
+      <c r="G284" s="21"/>
+      <c r="H284" s="21"/>
+      <c r="I284" s="21"/>
+      <c r="J284" s="2"/>
+    </row>
+    <row r="285" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C285" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E285" s="42">
+        <v>10</v>
+      </c>
+      <c r="F285" s="22">
+        <v>0</v>
+      </c>
+      <c r="G285" s="22">
+        <v>2</v>
+      </c>
+      <c r="H285" s="22">
+        <v>0</v>
+      </c>
+      <c r="I285" s="22">
+        <v>8</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L285" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C286" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D286" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E286" s="42">
+        <v>10</v>
+      </c>
+      <c r="F286" s="22"/>
+      <c r="G286" s="22"/>
+      <c r="H286" s="22"/>
+      <c r="I286" s="22"/>
+      <c r="J286" s="2"/>
+    </row>
+    <row r="287" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C287" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E287" s="42">
+        <v>10</v>
+      </c>
+      <c r="F287" s="22">
+        <v>0</v>
+      </c>
+      <c r="G287" s="22">
+        <v>0</v>
+      </c>
+      <c r="H287" s="22">
+        <v>0</v>
+      </c>
+      <c r="I287" s="22">
+        <v>10</v>
+      </c>
+      <c r="J287" s="2"/>
+    </row>
+    <row r="288" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C288" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E288" s="42">
+        <v>5</v>
+      </c>
+      <c r="F288" s="22">
+        <v>0</v>
+      </c>
+      <c r="G288" s="22">
+        <v>1</v>
+      </c>
+      <c r="H288" s="22">
+        <v>0</v>
+      </c>
+      <c r="I288" s="22">
+        <v>4</v>
+      </c>
+      <c r="J288" s="2">
+        <v>58</v>
+      </c>
+      <c r="L288" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C289" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E289" s="43">
+        <v>28</v>
+      </c>
+      <c r="F289" s="23"/>
+      <c r="G289" s="23"/>
+      <c r="H289" s="23"/>
+      <c r="I289" s="23"/>
+      <c r="J289" s="2"/>
+    </row>
+    <row r="290" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C290" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D290" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E290" s="44">
+        <v>8</v>
+      </c>
+      <c r="F290" s="24">
+        <v>8</v>
+      </c>
+      <c r="G290" s="24">
+        <v>0</v>
+      </c>
+      <c r="H290" s="24">
+        <v>0</v>
+      </c>
+      <c r="I290" s="24">
+        <v>0</v>
+      </c>
+      <c r="J290" s="2"/>
+    </row>
+    <row r="291" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C291" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D291" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" s="44">
+        <v>8</v>
+      </c>
+      <c r="F291" s="24"/>
+      <c r="G291" s="24"/>
+      <c r="H291" s="24"/>
+      <c r="I291" s="24"/>
+      <c r="J291" s="2"/>
+    </row>
+    <row r="292" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C292" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D292" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E292" s="44">
+        <v>8</v>
+      </c>
+      <c r="F292" s="24">
+        <v>0</v>
+      </c>
+      <c r="G292" s="24">
+        <v>0</v>
+      </c>
+      <c r="H292" s="24">
+        <v>8</v>
+      </c>
+      <c r="I292" s="24">
+        <v>0</v>
+      </c>
+      <c r="J292" s="2"/>
+    </row>
+    <row r="293" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C293" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D293" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E293" s="44">
+        <v>4</v>
+      </c>
+      <c r="F293" s="24">
+        <v>4</v>
+      </c>
+      <c r="G293" s="24">
+        <v>0</v>
+      </c>
+      <c r="H293" s="24">
+        <v>0</v>
+      </c>
+      <c r="I293" s="24">
+        <v>0</v>
+      </c>
+      <c r="J293" s="2"/>
+    </row>
+    <row r="294" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C294" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E294" s="41">
+        <v>28</v>
+      </c>
+      <c r="F294" s="21">
+        <v>0</v>
+      </c>
+      <c r="G294" s="21">
+        <v>0</v>
+      </c>
+      <c r="H294" s="21">
+        <v>0</v>
+      </c>
+      <c r="I294" s="21">
+        <v>28</v>
+      </c>
+      <c r="J294" s="2"/>
+    </row>
+    <row r="295" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C295" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D295" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E295" s="42">
+        <v>8</v>
+      </c>
+      <c r="F295" s="22">
+        <v>0</v>
+      </c>
+      <c r="G295" s="22">
+        <v>0</v>
+      </c>
+      <c r="H295" s="22">
+        <v>0</v>
+      </c>
+      <c r="I295" s="22">
+        <v>8</v>
+      </c>
+      <c r="J295" s="2"/>
+    </row>
+    <row r="296" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C296" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E296" s="42">
+        <v>8</v>
+      </c>
+      <c r="F296" s="22">
+        <v>0</v>
+      </c>
+      <c r="G296" s="22">
+        <v>0</v>
+      </c>
+      <c r="H296" s="22">
+        <v>0</v>
+      </c>
+      <c r="I296" s="22">
+        <v>8</v>
+      </c>
+      <c r="J296" s="2"/>
+    </row>
+    <row r="297" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C297" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D297" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E297" s="42">
+        <v>8</v>
+      </c>
+      <c r="F297" s="22">
+        <v>0</v>
+      </c>
+      <c r="G297" s="22">
+        <v>0</v>
+      </c>
+      <c r="H297" s="22">
+        <v>0</v>
+      </c>
+      <c r="I297" s="22">
+        <v>8</v>
+      </c>
+      <c r="J297" s="2"/>
+    </row>
+    <row r="298" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C298" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E298" s="42">
+        <v>4</v>
+      </c>
+      <c r="F298" s="22">
+        <v>0</v>
+      </c>
+      <c r="G298" s="22">
+        <v>0</v>
+      </c>
+      <c r="H298" s="22">
+        <v>0</v>
+      </c>
+      <c r="I298" s="22">
+        <v>4</v>
+      </c>
+      <c r="J298" s="2"/>
+    </row>
+    <row r="299" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C299" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D299" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E299" s="43">
+        <v>28</v>
+      </c>
+      <c r="F299" s="23">
+        <v>0</v>
+      </c>
+      <c r="G299" s="23">
+        <v>0</v>
+      </c>
+      <c r="H299" s="23">
+        <v>28</v>
+      </c>
+      <c r="I299" s="23">
+        <v>0</v>
+      </c>
+      <c r="J299" s="2"/>
+    </row>
+    <row r="300" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C300" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E300" s="44">
+        <v>8</v>
+      </c>
+      <c r="F300" s="24">
+        <v>0</v>
+      </c>
+      <c r="G300" s="24">
+        <v>0</v>
+      </c>
+      <c r="H300" s="24">
+        <v>8</v>
+      </c>
+      <c r="I300" s="24">
+        <v>0</v>
+      </c>
+      <c r="J300" s="2"/>
+    </row>
+    <row r="301" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C301" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D301" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E301" s="44">
+        <v>8</v>
+      </c>
+      <c r="F301" s="24">
+        <v>0</v>
+      </c>
+      <c r="G301" s="24">
+        <v>0</v>
+      </c>
+      <c r="H301" s="24">
+        <v>8</v>
+      </c>
+      <c r="I301" s="24">
+        <v>0</v>
+      </c>
+      <c r="J301" s="2"/>
+    </row>
+    <row r="302" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C302" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D302" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E302" s="44">
+        <v>8</v>
+      </c>
+      <c r="F302" s="24">
+        <v>0</v>
+      </c>
+      <c r="G302" s="24">
+        <v>0</v>
+      </c>
+      <c r="H302" s="24">
+        <v>8</v>
+      </c>
+      <c r="I302" s="24">
+        <v>0</v>
+      </c>
+      <c r="J302" s="2"/>
+    </row>
+    <row r="303" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C303" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D303" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E303" s="44">
+        <v>4</v>
+      </c>
+      <c r="F303" s="24">
+        <v>0</v>
+      </c>
+      <c r="G303" s="24">
+        <v>0</v>
+      </c>
+      <c r="H303" s="24">
+        <v>4</v>
+      </c>
+      <c r="I303" s="24">
+        <v>0</v>
+      </c>
+      <c r="J303" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/tool_results/results_analysed_numbers.xlsx
+++ b/tool_results/results_analysed_numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Diplom\Minimal Contracts\Templating\tool_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50654D7A-4A7F-4DBC-955F-F61EEC62AB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441DA67F-8D74-46D1-9926-F0412767123F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3612" yWindow="-17280" windowWidth="15360" windowHeight="16680" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="100">
   <si>
     <t>mythril</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>209, 210, 211, 212, 243, 244, 245, 246</t>
+  </si>
+  <si>
+    <t>Unsafe Delegatecall</t>
   </si>
 </sst>
 </file>
@@ -844,9 +847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816DF791-3565-4C2A-B7A1-D8086056D11D}">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L289" sqref="L289"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2148,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C49" s="16" t="s">
         <v>22</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C50" s="16" t="s">
         <v>29</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C51" s="16" t="s">
         <v>24</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C52" s="13" t="s">
         <v>9</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C53" s="14" t="s">
         <v>10</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C54" s="14" t="s">
         <v>11</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C55" s="14" t="s">
         <v>28</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C56" s="14" t="s">
         <v>13</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C57" s="15" t="s">
         <v>20</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C58" s="16" t="s">
         <v>21</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C59" s="16" t="s">
         <v>22</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C60" s="16" t="s">
         <v>29</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C61" s="16" t="s">
         <v>24</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>37</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C63" s="18" t="s">
         <v>10</v>
       </c>
@@ -2499,8 +2502,11 @@
         <v>38</v>
       </c>
       <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
         <v>11</v>
       </c>
@@ -2526,8 +2532,11 @@
         <v>39</v>
       </c>
       <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="L64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C65" s="18" t="s">
         <v>28</v>
       </c>
@@ -2553,8 +2562,11 @@
         <v>40</v>
       </c>
       <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C66" s="18" t="s">
         <v>13</v>
       </c>
@@ -2580,8 +2592,11 @@
         <v>121</v>
       </c>
       <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="L66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C67" s="19" t="s">
         <v>20</v>
       </c>
@@ -2604,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C68" s="20" t="s">
         <v>21</v>
       </c>
@@ -2627,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C69" s="20" t="s">
         <v>22</v>
       </c>
@@ -2650,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C70" s="20" t="s">
         <v>29</v>
       </c>
@@ -2673,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C71" s="20" t="s">
         <v>24</v>
       </c>
@@ -2696,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C72" s="17" t="s">
         <v>9</v>
       </c>
@@ -2719,7 +2734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
         <v>10</v>
       </c>
@@ -2742,7 +2757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C74" s="18" t="s">
         <v>11</v>
       </c>
@@ -2765,7 +2780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C75" s="18" t="s">
         <v>28</v>
       </c>
@@ -2788,7 +2803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C76" s="18" t="s">
         <v>13</v>
       </c>
@@ -2811,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C77" s="19" t="s">
         <v>20</v>
       </c>
@@ -2834,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C78" s="20" t="s">
         <v>21</v>
       </c>
@@ -2857,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C79" s="20" t="s">
         <v>22</v>
       </c>
@@ -2880,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C80" s="20" t="s">
         <v>29</v>
       </c>
@@ -5994,10 +6009,18 @@
       <c r="E204" s="25">
         <v>35</v>
       </c>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
+      <c r="F204" s="5">
+        <v>0</v>
+      </c>
+      <c r="G204" s="5">
+        <v>3</v>
+      </c>
+      <c r="H204" s="5">
+        <v>0</v>
+      </c>
+      <c r="I204" s="5">
+        <v>32</v>
+      </c>
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
@@ -6039,10 +6062,18 @@
       <c r="E206" s="26">
         <v>10</v>
       </c>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
+      <c r="F206" s="3">
+        <v>0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+      <c r="I206" s="3">
+        <v>10</v>
+      </c>
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
@@ -6098,7 +6129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C209" s="7" t="s">
         <v>20</v>
       </c>
@@ -6109,13 +6140,21 @@
         <f>3*8+4</f>
         <v>28</v>
       </c>
-      <c r="F209" s="7"/>
-      <c r="G209" s="7"/>
-      <c r="H209" s="7"/>
-      <c r="I209" s="7"/>
+      <c r="F209" s="7">
+        <v>12</v>
+      </c>
+      <c r="G209" s="7">
+        <v>0</v>
+      </c>
+      <c r="H209" s="7">
+        <v>16</v>
+      </c>
+      <c r="I209" s="7">
+        <v>0</v>
+      </c>
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C210" s="4" t="s">
         <v>21</v>
       </c>
@@ -6139,7 +6178,7 @@
       </c>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C211" s="4" t="s">
         <v>22</v>
       </c>
@@ -6149,13 +6188,24 @@
       <c r="E211" s="28">
         <v>8</v>
       </c>
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
-      <c r="I211" s="4"/>
+      <c r="F211" s="4">
+        <v>0</v>
+      </c>
+      <c r="G211" s="4">
+        <v>0</v>
+      </c>
+      <c r="H211" s="4">
+        <v>8</v>
+      </c>
+      <c r="I211" s="4">
+        <v>0</v>
+      </c>
       <c r="J211" s="2"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="M211" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C212" s="4" t="s">
         <v>23</v>
       </c>
@@ -6179,7 +6229,7 @@
       </c>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C213" s="4" t="s">
         <v>24</v>
       </c>
@@ -6203,7 +6253,7 @@
       </c>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C214" s="5" t="s">
         <v>9</v>
       </c>
@@ -6227,7 +6277,7 @@
       </c>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C215" s="3" t="s">
         <v>10</v>
       </c>
@@ -6251,7 +6301,7 @@
       </c>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C216" s="3" t="s">
         <v>11</v>
       </c>
@@ -6275,7 +6325,7 @@
       </c>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C217" s="3" t="s">
         <v>12</v>
       </c>
@@ -6299,7 +6349,7 @@
       </c>
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C218" s="3" t="s">
         <v>13</v>
       </c>
@@ -6323,7 +6373,7 @@
       </c>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C219" s="7" t="s">
         <v>20</v>
       </c>
@@ -6347,7 +6397,7 @@
       </c>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C220" s="4" t="s">
         <v>21</v>
       </c>
@@ -6371,7 +6421,7 @@
       </c>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C221" s="4" t="s">
         <v>22</v>
       </c>
@@ -6395,7 +6445,7 @@
       </c>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C222" s="4" t="s">
         <v>23</v>
       </c>
@@ -6419,7 +6469,7 @@
       </c>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C223" s="4" t="s">
         <v>24</v>
       </c>
@@ -6443,7 +6493,7 @@
       </c>
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>19</v>
       </c>
@@ -6456,10 +6506,18 @@
       <c r="E224" s="29">
         <v>35</v>
       </c>
-      <c r="F224" s="9"/>
-      <c r="G224" s="9"/>
-      <c r="H224" s="9"/>
-      <c r="I224" s="9"/>
+      <c r="F224" s="9">
+        <v>0</v>
+      </c>
+      <c r="G224" s="9">
+        <v>3</v>
+      </c>
+      <c r="H224" s="9">
+        <v>0</v>
+      </c>
+      <c r="I224" s="9">
+        <v>32</v>
+      </c>
       <c r="J224" s="2"/>
     </row>
     <row r="225" spans="3:12" x14ac:dyDescent="0.35">
@@ -6501,10 +6559,18 @@
       <c r="E226" s="30">
         <v>10</v>
       </c>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="10"/>
-      <c r="I226" s="10"/>
+      <c r="F226" s="10">
+        <v>0</v>
+      </c>
+      <c r="G226" s="10">
+        <v>0</v>
+      </c>
+      <c r="H226" s="10">
+        <v>0</v>
+      </c>
+      <c r="I226" s="10">
+        <v>10</v>
+      </c>
       <c r="J226" s="2"/>
     </row>
     <row r="227" spans="3:12" x14ac:dyDescent="0.35">
@@ -6570,10 +6636,18 @@
       <c r="E229" s="31">
         <v>28</v>
       </c>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
-      <c r="H229" s="11"/>
-      <c r="I229" s="11"/>
+      <c r="F229" s="11">
+        <v>12</v>
+      </c>
+      <c r="G229" s="11">
+        <v>0</v>
+      </c>
+      <c r="H229" s="11">
+        <v>16</v>
+      </c>
+      <c r="I229" s="11">
+        <v>0</v>
+      </c>
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="3:12" x14ac:dyDescent="0.35">
@@ -6610,10 +6684,18 @@
       <c r="E231" s="32">
         <v>8</v>
       </c>
-      <c r="F231" s="12"/>
-      <c r="G231" s="12"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
+      <c r="F231" s="12">
+        <v>0</v>
+      </c>
+      <c r="G231" s="12">
+        <v>0</v>
+      </c>
+      <c r="H231" s="12">
+        <v>8</v>
+      </c>
+      <c r="I231" s="12">
+        <v>0</v>
+      </c>
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="3:12" x14ac:dyDescent="0.35">
@@ -6919,10 +7001,18 @@
       <c r="E244" s="33">
         <v>35</v>
       </c>
-      <c r="F244" s="13"/>
-      <c r="G244" s="13"/>
-      <c r="H244" s="13"/>
-      <c r="I244" s="13"/>
+      <c r="F244" s="13">
+        <v>0</v>
+      </c>
+      <c r="G244" s="13">
+        <v>3</v>
+      </c>
+      <c r="H244" s="13">
+        <v>0</v>
+      </c>
+      <c r="I244" s="13">
+        <v>32</v>
+      </c>
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="2:12" x14ac:dyDescent="0.35">
@@ -6964,10 +7054,18 @@
       <c r="E246" s="34">
         <v>10</v>
       </c>
-      <c r="F246" s="14"/>
-      <c r="G246" s="14"/>
-      <c r="H246" s="14"/>
-      <c r="I246" s="14"/>
+      <c r="F246" s="14">
+        <v>0</v>
+      </c>
+      <c r="G246" s="14">
+        <v>0</v>
+      </c>
+      <c r="H246" s="14">
+        <v>0</v>
+      </c>
+      <c r="I246" s="14">
+        <v>10</v>
+      </c>
       <c r="J246" s="2"/>
     </row>
     <row r="247" spans="2:12" x14ac:dyDescent="0.35">
@@ -7033,10 +7131,18 @@
       <c r="E249" s="35">
         <v>28</v>
       </c>
-      <c r="F249" s="15"/>
-      <c r="G249" s="15"/>
-      <c r="H249" s="15"/>
-      <c r="I249" s="15"/>
+      <c r="F249" s="15">
+        <v>12</v>
+      </c>
+      <c r="G249" s="15">
+        <v>0</v>
+      </c>
+      <c r="H249" s="15">
+        <v>16</v>
+      </c>
+      <c r="I249" s="15">
+        <v>0</v>
+      </c>
       <c r="J249" s="2"/>
     </row>
     <row r="250" spans="2:12" x14ac:dyDescent="0.35">
@@ -7073,10 +7179,18 @@
       <c r="E251" s="36">
         <v>8</v>
       </c>
-      <c r="F251" s="16"/>
-      <c r="G251" s="16"/>
-      <c r="H251" s="16"/>
-      <c r="I251" s="16"/>
+      <c r="F251" s="16">
+        <v>0</v>
+      </c>
+      <c r="G251" s="16">
+        <v>0</v>
+      </c>
+      <c r="H251" s="16">
+        <v>8</v>
+      </c>
+      <c r="I251" s="16">
+        <v>0</v>
+      </c>
       <c r="J251" s="2"/>
     </row>
     <row r="252" spans="2:12" x14ac:dyDescent="0.35">
@@ -7380,10 +7494,18 @@
       <c r="E264" s="37">
         <v>35</v>
       </c>
-      <c r="F264" s="17"/>
-      <c r="G264" s="17"/>
-      <c r="H264" s="17"/>
-      <c r="I264" s="17"/>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>3</v>
+      </c>
+      <c r="H264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="17">
+        <v>32</v>
+      </c>
       <c r="J264" s="2"/>
     </row>
     <row r="265" spans="2:12" x14ac:dyDescent="0.35">
@@ -7425,10 +7547,18 @@
       <c r="E266" s="38">
         <v>10</v>
       </c>
-      <c r="F266" s="18"/>
-      <c r="G266" s="18"/>
-      <c r="H266" s="18"/>
-      <c r="I266" s="18"/>
+      <c r="F266" s="18">
+        <v>0</v>
+      </c>
+      <c r="G266" s="18">
+        <v>0</v>
+      </c>
+      <c r="H266" s="18">
+        <v>0</v>
+      </c>
+      <c r="I266" s="18">
+        <v>10</v>
+      </c>
       <c r="J266" s="2"/>
     </row>
     <row r="267" spans="2:12" x14ac:dyDescent="0.35">
@@ -7494,10 +7624,18 @@
       <c r="E269" s="39">
         <v>28</v>
       </c>
-      <c r="F269" s="19"/>
-      <c r="G269" s="19"/>
-      <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
+      <c r="F269" s="19">
+        <v>12</v>
+      </c>
+      <c r="G269" s="19">
+        <v>0</v>
+      </c>
+      <c r="H269" s="19">
+        <v>16</v>
+      </c>
+      <c r="I269" s="19">
+        <v>0</v>
+      </c>
       <c r="J269" s="2"/>
     </row>
     <row r="270" spans="2:12" x14ac:dyDescent="0.35">
@@ -7534,10 +7672,18 @@
       <c r="E271" s="40">
         <v>8</v>
       </c>
-      <c r="F271" s="20"/>
-      <c r="G271" s="20"/>
-      <c r="H271" s="20"/>
-      <c r="I271" s="20"/>
+      <c r="F271" s="20">
+        <v>0</v>
+      </c>
+      <c r="G271" s="20">
+        <v>0</v>
+      </c>
+      <c r="H271" s="20">
+        <v>8</v>
+      </c>
+      <c r="I271" s="20">
+        <v>0</v>
+      </c>
       <c r="J271" s="2"/>
     </row>
     <row r="272" spans="2:12" x14ac:dyDescent="0.35">
@@ -7841,10 +7987,18 @@
       <c r="E284" s="41">
         <v>35</v>
       </c>
-      <c r="F284" s="21"/>
-      <c r="G284" s="21"/>
-      <c r="H284" s="21"/>
-      <c r="I284" s="21"/>
+      <c r="F284" s="21">
+        <v>0</v>
+      </c>
+      <c r="G284" s="21">
+        <v>3</v>
+      </c>
+      <c r="H284" s="21">
+        <v>0</v>
+      </c>
+      <c r="I284" s="21">
+        <v>32</v>
+      </c>
       <c r="J284" s="2"/>
     </row>
     <row r="285" spans="2:12" x14ac:dyDescent="0.35">
@@ -7886,10 +8040,18 @@
       <c r="E286" s="42">
         <v>10</v>
       </c>
-      <c r="F286" s="22"/>
-      <c r="G286" s="22"/>
-      <c r="H286" s="22"/>
-      <c r="I286" s="22"/>
+      <c r="F286" s="22">
+        <v>0</v>
+      </c>
+      <c r="G286" s="22">
+        <v>0</v>
+      </c>
+      <c r="H286" s="22">
+        <v>0</v>
+      </c>
+      <c r="I286" s="22">
+        <v>10</v>
+      </c>
       <c r="J286" s="2"/>
     </row>
     <row r="287" spans="2:12" x14ac:dyDescent="0.35">
@@ -7955,10 +8117,18 @@
       <c r="E289" s="43">
         <v>28</v>
       </c>
-      <c r="F289" s="23"/>
-      <c r="G289" s="23"/>
-      <c r="H289" s="23"/>
-      <c r="I289" s="23"/>
+      <c r="F289" s="23">
+        <v>12</v>
+      </c>
+      <c r="G289" s="23">
+        <v>0</v>
+      </c>
+      <c r="H289" s="23">
+        <v>16</v>
+      </c>
+      <c r="I289" s="23">
+        <v>0</v>
+      </c>
       <c r="J289" s="2"/>
     </row>
     <row r="290" spans="3:10" x14ac:dyDescent="0.35">
@@ -7995,10 +8165,18 @@
       <c r="E291" s="44">
         <v>8</v>
       </c>
-      <c r="F291" s="24"/>
-      <c r="G291" s="24"/>
-      <c r="H291" s="24"/>
-      <c r="I291" s="24"/>
+      <c r="F291" s="24">
+        <v>0</v>
+      </c>
+      <c r="G291" s="24">
+        <v>0</v>
+      </c>
+      <c r="H291" s="24">
+        <v>8</v>
+      </c>
+      <c r="I291" s="24">
+        <v>0</v>
+      </c>
       <c r="J291" s="2"/>
     </row>
     <row r="292" spans="3:10" x14ac:dyDescent="0.35">

--- a/tool_results/results_analysed_numbers.xlsx
+++ b/tool_results/results_analysed_numbers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Diplom\Minimal Contracts\Templating\tool_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441DA67F-8D74-46D1-9926-F0412767123F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0245D8-6B13-492A-A885-BF2798FECDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
+    <workbookView xWindow="-3720" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="metrics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="129">
   <si>
     <t>mythril</t>
   </si>
@@ -336,6 +359,93 @@
   </si>
   <si>
     <t>Unsafe Delegatecall</t>
+  </si>
+  <si>
+    <t>Overall results for each tool</t>
+  </si>
+  <si>
+    <t>Mythril</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Slither</t>
+  </si>
+  <si>
+    <t>Confuzzius</t>
+  </si>
+  <si>
+    <t>Results by low-level construct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythril </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>delegatecall</t>
+  </si>
+  <si>
+    <t>staticcall</t>
+  </si>
+  <si>
+    <t>callcode</t>
+  </si>
+  <si>
+    <t>Results by Solidity version</t>
+  </si>
+  <si>
+    <t>Accuracy = TP + TN / N</t>
+  </si>
+  <si>
+    <t>Mythril Col Start</t>
+  </si>
+  <si>
+    <t>Mythril Col End</t>
+  </si>
+  <si>
+    <t>Slither Col Start</t>
+  </si>
+  <si>
+    <t>Slither Col End</t>
+  </si>
+  <si>
+    <t>Confuzzius Col Start</t>
+  </si>
+  <si>
+    <t>Confuzzius Col End</t>
+  </si>
+  <si>
+    <t>Precision = TP / (TP + FP)</t>
+  </si>
+  <si>
+    <t>Recall = TP / (TP + FN)</t>
+  </si>
+  <si>
+    <t>Specifity</t>
+  </si>
+  <si>
+    <t>Specifity  = TN / (TN + FP)</t>
   </si>
 </sst>
 </file>
@@ -847,9 +957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816DF791-3565-4C2A-B7A1-D8086056D11D}">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+    <sheetView zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8470,4 +8580,416 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995A027-CBA2-444C-83FA-6EB946FF890B}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="3" width="19.08984375" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2">_xlfn.LET(
+  _xlpm.fRange, _xlfn._xlws.FILTER(results!F2:'results'!F101, MOD(ROW(results!F2:'results'!F101)-2,5)=0),
+  _xlpm.iRange, _xlfn._xlws.FILTER(results!I2:'results'!I101, MOD(ROW(results!I2:'results'!I101)-2,5)=0),
+  SUM(_xlpm.fRange + _xlpm.iRange)/L2
+)</f>
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,2,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,2,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,2,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.90793650793650793</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2">
+        <v>595</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>101</v>
+      </c>
+      <c r="O2">
+        <v>103</v>
+      </c>
+      <c r="P2">
+        <v>202</v>
+      </c>
+      <c r="Q2">
+        <v>204</v>
+      </c>
+      <c r="R2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">_xlfn.LET(
+  _xlpm.fRange, _xlfn._xlws.FILTER(results!F103:'results'!F202, MOD(ROW(results!F103:'results'!F202)-103,5)=0),
+  _xlpm.iRange, _xlfn._xlws.FILTER(results!I103:'results'!I202, MOD(ROW(results!I103:'results'!I202)-103,5)=0),
+  SUM(_xlpm.fRange + _xlpm.iRange)/L2
+)</f>
+        <v>0.77647058823529413</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,103,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,103,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,103,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">_xlfn.LET(
+  _xlpm.fRange, _xlfn._xlws.FILTER(results!F204:'results'!F304, MOD(ROW(results!F204:'results'!F304)-204,5)=0),
+  _xlpm.iRange, _xlfn._xlws.FILTER(results!I204:'results'!I304, MOD(ROW(results!I204:'results'!I304)-204,5)=0),
+  SUM(_xlpm.fRange + _xlpm.iRange)/L2
+)</f>
+        <v>0.60504201680672265</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,204,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,204,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,204,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="J4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tool_results/results_analysed_numbers.xlsx
+++ b/tool_results/results_analysed_numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Diplom\Minimal Contracts\Templating\tool_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0245D8-6B13-492A-A885-BF2798FECDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228B2A9-FFBD-433F-94A4-107612B76A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3720" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
   </bookViews>
@@ -415,9 +415,6 @@
     <t>Results by Solidity version</t>
   </si>
   <si>
-    <t>Accuracy = TP + TN / N</t>
-  </si>
-  <si>
     <t>Mythril Col Start</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>Specifity  = TN / (TN + FP)</t>
+  </si>
+  <si>
+    <t>Accuracy = (TP + TN) / N</t>
   </si>
 </sst>
 </file>
@@ -958,8 +958,8 @@
   <dimension ref="A1:M303"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F204" sqref="F204"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8586,8 +8586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995A027-CBA2-444C-83FA-6EB946FF890B}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8617,31 +8617,31 @@
         <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>119</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>120</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>121</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>123</v>
-      </c>
-      <c r="R1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -8693,7 +8693,7 @@
         <v>0.90793650793650793</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L2">
         <v>595</v>
@@ -8763,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -8812,7 +8812,7 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -8825,26 +8825,251 @@
       <c r="C6" t="s">
         <v>112</v>
       </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,6,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,6,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,6,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,6,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>113</v>
       </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,3,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.85882352941176465</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,3,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,3,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,3,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.91111111111111109</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>114</v>
       </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,4,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.85882352941176465</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,4,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,4,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,4,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.91111111111111109</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>115</v>
       </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,25,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.83823529411764708</v>
+      </c>
+      <c r="E9" cm="1">
+        <f t="array" ref="E9">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,25,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,25,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,25,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.91666666666666663</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>116</v>
       </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,5,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,5,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,5,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,5,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
@@ -8853,26 +9078,251 @@
       <c r="C11" t="s">
         <v>112</v>
       </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,107,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.77647058823529413</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,107,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,107,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,107,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>113</v>
       </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,104,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.77647058823529413</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,104,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,104,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,104,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>114</v>
       </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,105,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.77647058823529413</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" ref="E13">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,105,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,105,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,105,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>115</v>
       </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,126,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.77941176470588236</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" ref="E14">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,126,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,126,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,126,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>116</v>
       </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,106,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" ref="E15">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,106,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,106,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,106,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -8881,28 +9331,253 @@
       <c r="C16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,208,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="E16" cm="1">
+        <f t="array" ref="E16">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,208,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,208,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,208,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,205,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="E17" cm="1">
+        <f t="array" ref="E17">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,205,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,205,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,205,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,206,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="E18" t="e" cm="1">
+        <f t="array" ref="E18">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,206,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,206,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(20,1,206,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,227,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="E19" t="e" cm="1">
+        <f t="array" ref="E19">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,227,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,227,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(16,1,227,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,207,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="E20" t="e" cm="1">
+        <f t="array" ref="E20">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,207,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,207,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,207,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -8912,81 +9587,756 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" cm="1">
+        <f t="array" ref="D22">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,2,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="E22" cm="1">
+        <f t="array" ref="E22">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,2,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,2,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,2,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" cm="1">
+        <f t="array" ref="D23">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,22,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="E23" cm="1">
+        <f t="array" ref="E23">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,22,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,22,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,22,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,42,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="E24" cm="1">
+        <f t="array" ref="E24">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,42,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,42,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,42,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" cm="1">
+        <f t="array" ref="D25">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,62,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="E25" cm="1">
+        <f t="array" ref="E25">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,62,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,62,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,62,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" cm="1">
+        <f t="array" ref="D26">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,82,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="E26" cm="1">
+        <f t="array" ref="E26">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,82,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,82,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,82,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.98412698412698407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,103,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="E27" cm="1">
+        <f t="array" ref="E27">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,103,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,103,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,103,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" cm="1">
+        <f t="array" ref="D28">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,123,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="E28" cm="1">
+        <f t="array" ref="E28">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,123,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,123,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,123,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" cm="1">
+        <f t="array" ref="D29">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,143,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="E29" cm="1">
+        <f t="array" ref="E29">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,143,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,143,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,143,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" cm="1">
+        <f t="array" ref="D30">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,163,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="E30" cm="1">
+        <f t="array" ref="E30">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,163,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,163,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,163,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" cm="1">
+        <f t="array" ref="D31">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,183,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="E31" cm="1">
+        <f t="array" ref="E31">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,183,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,183,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,183,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>108</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,204,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.60504201680672265</v>
+      </c>
+      <c r="E32" cm="1">
+        <f t="array" ref="E32">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,204,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,204,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,204,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D33" cm="1">
+        <f t="array" ref="D33">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,224,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.60504201680672265</v>
+      </c>
+      <c r="E33" cm="1">
+        <f t="array" ref="E33">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,224,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,224,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,224,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D34" cm="1">
+        <f t="array" ref="D34">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,244,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.60504201680672265</v>
+      </c>
+      <c r="E34" cm="1">
+        <f t="array" ref="E34">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,244,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,244,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,244,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="D35" cm="1">
+        <f t="array" ref="D35">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,264,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.60504201680672265</v>
+      </c>
+      <c r="E35" cm="1">
+        <f t="array" ref="E35">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,264,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,264,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,264,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>41</v>
+      </c>
+      <c r="D36" cm="1">
+        <f t="array" ref="D36">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,284,5),
+  _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.eValues, INDEX(results!E:E, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.fValues+ _xlpm.iValues),
+  _xlpm.denom, SUM(_xlpm.eValues),
+  _xlpm.num / _xlpm.denom
+)</f>
+        <v>0.60504201680672265</v>
+      </c>
+      <c r="E36" cm="1">
+        <f t="array" ref="E36">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,284,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,284,5),
+  _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
+  _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rF),
+  _xlpm.denom, SUM(_xlpm.rF + _xlpm.rH),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">_xlfn.LET(
+  _xlpm.rows, _xlfn.SEQUENCE(4,1,284,5),
+  _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
+  _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
+  _xlpm.num, SUM(_xlpm.rI),
+  _xlpm.denom, SUM(_xlpm.rI + _xlpm.rG),
+  _xlpm.num/_xlpm.denom
+)</f>
+        <v>0.95238095238095233</v>
       </c>
     </row>
   </sheetData>

--- a/tool_results/results_analysed_numbers.xlsx
+++ b/tool_results/results_analysed_numbers.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Diplom\Minimal Contracts\Templating\tool_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228B2A9-FFBD-433F-94A4-107612B76A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65133F6-6EA1-489F-AF6C-02886D98C401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3720" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
+    <workbookView xWindow="-3720" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
     <sheet name="metrics" sheetId="2" r:id="rId2"/>
+    <sheet name="diagrams" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -636,6 +637,1382 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Overall Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4507-4480-B46F-15163A9F01A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4507-4480-B46F-15163A9F01A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Mythril</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Slither</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Confuzzius</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metrics!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.87058823529411766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60504201680672265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4507-4480-B46F-15163A9F01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="46800735"/>
+        <c:axId val="46785855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46800735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46785855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46785855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46800735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mythril</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0.4.26</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.5.17</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.6.12</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.7.6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.8.29</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metrics!$D$22:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58823529411764708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-0239-4AB8-B987-BB5AFD1CF933}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Slither</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0.4.26</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.5.17</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.6.12</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.7.6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.8.29</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metrics!$D$27:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0239-4AB8-B987-BB5AFD1CF933}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Confuzzius</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0.4.26</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.5.17</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.6.12</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.7.6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.8.29</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metrics!$D$32:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.60504201680672265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60504201680672265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60504201680672265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60504201680672265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60504201680672265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-0239-4AB8-B987-BB5AFD1CF933}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="388283103"/>
+        <c:axId val="388292703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388283103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Solidity Version</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388292703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388292703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388283103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177594</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177594</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138397</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C2BA7E-F299-8AF1-9AB0-A1EBDFE63F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>169460</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>169460</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132491</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B44F49-381A-9BFA-D3DF-9BCA7D283F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8586,8 +9963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995A027-CBA2-444C-83FA-6EB946FF890B}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10342,4 +11719,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FB626-F218-4B99-B9CF-F14B8A51FAA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tool_results/results_analysed_numbers.xlsx
+++ b/tool_results/results_analysed_numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Diplom\Minimal Contracts\Templating\tool_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65133F6-6EA1-489F-AF6C-02886D98C401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4387AF-AC4D-4CDA-8BC4-577D336B505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3720" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -440,13 +440,13 @@
     <t>Recall = TP / (TP + FN)</t>
   </si>
   <si>
-    <t>Specifity</t>
-  </si>
-  <si>
     <t>Specifity  = TN / (TN + FP)</t>
   </si>
   <si>
     <t>Accuracy = (TP + TN) / N</t>
+  </si>
+  <si>
+    <t>Specificity</t>
   </si>
 </sst>
 </file>
@@ -9963,8 +9963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995A027-CBA2-444C-83FA-6EB946FF890B}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9994,10 +9994,10 @@
         <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -10189,7 +10189,7 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -11725,7 +11725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FB626-F218-4B99-B9CF-F14B8A51FAA4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>

--- a/tool_results/results_analysed_numbers.xlsx
+++ b/tool_results/results_analysed_numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Diplom\Minimal Contracts\Templating\tool_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4387AF-AC4D-4CDA-8BC4-577D336B505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5373DD0B-9108-453E-99AE-0DC680ADCF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="133">
   <si>
     <t>mythril</t>
   </si>
@@ -447,6 +447,18 @@
   </si>
   <si>
     <t>Specificity</t>
+  </si>
+  <si>
+    <t>Mythril unchecked flagged</t>
+  </si>
+  <si>
+    <t>Mythril Unchecked Flagged (=tp)</t>
+  </si>
+  <si>
+    <t>Slither Unchecked Flagged (=tp)</t>
+  </si>
+  <si>
+    <t>Confuzzius Unchecked Flagged (=tp)</t>
   </si>
 </sst>
 </file>
@@ -2332,11 +2344,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816DF791-3565-4C2A-B7A1-D8086056D11D}">
-  <dimension ref="A1:M303"/>
+  <dimension ref="A1:N303"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
+    <sheetView zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2352,7 +2364,7 @@
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2393,7 +2405,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2424,7 +2436,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2453,8 +2465,11 @@
       <c r="L3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2484,7 +2499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2514,7 +2529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2544,7 +2559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
@@ -2571,7 +2586,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
@@ -2596,7 +2611,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -2621,7 +2636,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
@@ -2646,7 +2661,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
@@ -2671,7 +2686,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2696,7 +2711,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
@@ -2721,7 +2736,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
@@ -2746,7 +2761,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2771,7 +2786,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
@@ -9964,7 +9979,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10192,6 +10207,17 @@
         <v>126</v>
       </c>
     </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
@@ -10246,6 +10272,18 @@
   _xlpm.num/_xlpm.denom
 )</f>
         <v>0.88888888888888884</v>
+      </c>
+      <c r="M6">
+        <f>SUM(results!F7,results!F17,results!F27,results!F37,results!F47,results!F57,results!F67,results!F77,results!F87,results!F97)</f>
+        <v>232</v>
+      </c>
+      <c r="O6">
+        <f>SUM(results!F108,results!F118,results!F128,results!F138,results!F148,results!F158,results!F168,results!F178,results!F188,results!F198)</f>
+        <v>140</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(results!F209,results!F219,results!F229,results!F239,results!F249,results!F259,results!F269,results!F279,results!F289,results!F299)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">

--- a/tool_results/results_analysed_numbers.xlsx
+++ b/tool_results/results_analysed_numbers.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Diplom\Minimal Contracts\Templating\tool_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5373DD0B-9108-453E-99AE-0DC680ADCF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77231A10-BA6E-4B9D-AF46-C2F87620F5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="1" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
-    <sheet name="metrics" sheetId="2" r:id="rId2"/>
-    <sheet name="diagrams" sheetId="3" r:id="rId3"/>
+    <sheet name="results_additional" sheetId="4" r:id="rId2"/>
+    <sheet name="metrics" sheetId="2" r:id="rId3"/>
+    <sheet name="diagrams" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="134">
   <si>
     <t>mythril</t>
   </si>
@@ -460,6 +461,9 @@
   <si>
     <t>Confuzzius Unchecked Flagged (=tp)</t>
   </si>
+  <si>
+    <t>Contract_address_uc_data2_8; Contract_address_uc_data_8; Contract_uc_data_8</t>
+  </si>
 </sst>
 </file>
 
@@ -578,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -628,6 +632,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -802,7 +809,7 @@
                   <c:v>0.87058823529411766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77647058823529413</c:v>
+                  <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.60504201680672265</c:v>
@@ -1150,7 +1157,7 @@
                   <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.76470588235294112</c:v>
@@ -1407,6 +1414,728 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Accuracy Mythril</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>send</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>call</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>delegatecall</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>staticcall</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>callcode</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metrics!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85882352941176465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85882352941176465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83823529411764708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B29-44C2-BABE-BF547D98D1CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1456337935"/>
+        <c:axId val="1456334095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1456337935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456334095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1456334095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456337935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Accuracy per tool</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> and low-level construct</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mythril</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>send</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>call</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>delegatecall</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>staticcall</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>callcode</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metrics!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85882352941176465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85882352941176465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83823529411764708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B8C-4B69-9C51-E2BB21BB7BFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Slither</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>metrics!$D$11:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B8C-4B69-9C51-E2BB21BB7BFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Confuzzius</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>metrics!$D$16:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.70588235294117652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70588235294117652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52941176470588236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52941176470588236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52941176470588236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B8C-4B69-9C51-E2BB21BB7BFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="685530831"/>
+        <c:axId val="685532271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="685530831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685532271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685532271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685530831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1447,7 +2176,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2024,6 +3839,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175517</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166955</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>105167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24665AAF-2E06-C830-2709-0C1A3DC5734D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>751138</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>149057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>836</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>135020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C931C0-D85E-CE13-02EC-FA02C0A5B0B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2346,9 +4233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816DF791-3565-4C2A-B7A1-D8086056D11D}">
   <dimension ref="A1:N303"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="B1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6236,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="13">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="3:12" x14ac:dyDescent="0.35">
@@ -6259,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="3:12" x14ac:dyDescent="0.35">
@@ -6282,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="3:12" x14ac:dyDescent="0.35">
@@ -6305,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="3:12" x14ac:dyDescent="0.35">
@@ -6328,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="3:12" x14ac:dyDescent="0.35">
@@ -9975,11 +11862,582 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818B4C76-8770-46BA-BF7E-6B24BFF81621}">
+  <dimension ref="A1:M62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="8" max="9" width="12.90625" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+    <col min="11" max="11" width="22.90625" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="37">
+        <v>15</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="38">
+        <v>5</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="38">
+        <v>5</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="38">
+        <v>5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="39">
+        <v>15</v>
+      </c>
+      <c r="F6" s="19">
+        <v>15</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="40">
+        <v>5</v>
+      </c>
+      <c r="F7" s="20">
+        <v>5</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="40">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20">
+        <v>5</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="40">
+        <v>5</v>
+      </c>
+      <c r="F9" s="20">
+        <v>5</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="41">
+        <v>15</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="42">
+        <v>5</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="42">
+        <v>5</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="42">
+        <v>5</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="43">
+        <v>15</v>
+      </c>
+      <c r="F14" s="23">
+        <v>6</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
+        <v>9</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="44">
+        <v>5</v>
+      </c>
+      <c r="F15" s="24">
+        <v>2</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <v>3</v>
+      </c>
+      <c r="I15" s="24">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="44">
+        <v>5</v>
+      </c>
+      <c r="F16" s="24">
+        <v>2</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <v>3</v>
+      </c>
+      <c r="I16" s="24">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="44">
+        <v>5</v>
+      </c>
+      <c r="F17" s="24">
+        <v>2</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <v>3</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K62" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995A027-CBA2-444C-83FA-6EB946FF890B}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10119,7 +12577,7 @@
   _xlpm.iRange, _xlfn._xlws.FILTER(results!I103:'results'!I202, MOD(ROW(results!I103:'results'!I202)-103,5)=0),
   SUM(_xlpm.fRange + _xlpm.iRange)/L2
 )</f>
-        <v>0.77647058823529413</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">_xlfn.LET(
@@ -10503,7 +12961,7 @@
   _xlpm.denom, SUM(_xlpm.eValues),
   _xlpm.num / _xlpm.denom
 )</f>
-        <v>0.77647058823529413</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">_xlfn.LET(
@@ -10553,7 +13011,7 @@
   _xlpm.denom, SUM(_xlpm.eValues),
   _xlpm.num / _xlpm.denom
 )</f>
-        <v>0.77647058823529413</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">_xlfn.LET(
@@ -10603,7 +13061,7 @@
   _xlpm.denom, SUM(_xlpm.eValues),
   _xlpm.num / _xlpm.denom
 )</f>
-        <v>0.77647058823529413</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">_xlfn.LET(
@@ -10653,7 +13111,7 @@
   _xlpm.denom, SUM(_xlpm.eValues),
   _xlpm.num / _xlpm.denom
 )</f>
-        <v>0.77941176470588236</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">_xlfn.LET(
@@ -11365,7 +13823,7 @@
   _xlpm.denom, SUM(_xlpm.eValues),
   _xlpm.num / _xlpm.denom
 )</f>
-        <v>0.82352941176470584</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" ref="E29">_xlfn.LET(
@@ -11759,12 +14217,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FB626-F218-4B99-B9CF-F14B8A51FAA4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A20" zoomScale="76" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tool_results/results_analysed_numbers.xlsx
+++ b/tool_results/results_analysed_numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Diplom\Minimal Contracts\Templating\tool_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77231A10-BA6E-4B9D-AF46-C2F87620F5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA39C3-00D9-47D6-A4DA-1A48D29DBA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="1" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="145">
   <si>
     <t>mythril</t>
   </si>
@@ -366,9 +366,6 @@
     <t>Overall results for each tool</t>
   </si>
   <si>
-    <t>Mythril</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -384,16 +381,7 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>Slither</t>
-  </si>
-  <si>
-    <t>Confuzzius</t>
-  </si>
-  <si>
     <t>Results by low-level construct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mythril </t>
   </si>
   <si>
     <t>Category</t>
@@ -464,11 +452,59 @@
   <si>
     <t>Contract_address_uc_data2_8; Contract_address_uc_data_8; Contract_uc_data_8</t>
   </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>n function</t>
+  </si>
+  <si>
+    <t>Mythril c+f</t>
+  </si>
+  <si>
+    <t>Slither c+f</t>
+  </si>
+  <si>
+    <t>Confuzzius c+f</t>
+  </si>
+  <si>
+    <t>Mythril f</t>
+  </si>
+  <si>
+    <t>Mythril c</t>
+  </si>
+  <si>
+    <t>n constructor</t>
+  </si>
+  <si>
+    <t>Slither f</t>
+  </si>
+  <si>
+    <t>Slither c</t>
+  </si>
+  <si>
+    <t>Confuzzius f</t>
+  </si>
+  <si>
+    <t>TP = f</t>
+  </si>
+  <si>
+    <t>FP = g</t>
+  </si>
+  <si>
+    <t>TN = i</t>
+  </si>
+  <si>
+    <t>FN = h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +596,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -582,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -635,6 +677,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -748,7 +792,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="1"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -762,12 +806,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-4507-4480-B46F-15163A9F01A4}"/>
+                <c16:uniqueId val="{00000001-AA98-482E-BBD9-23E9C79A3208}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="2"/>
+            <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -781,7 +825,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4507-4480-B46F-15163A9F01A4}"/>
+                <c16:uniqueId val="{00000003-AA98-482E-BBD9-23E9C79A3208}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -801,17 +845,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$2:$D$4</c:f>
+              <c:f>metrics!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.87058823529411766</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.83174603174603179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91428571428571426</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.76470588235294112</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.60504201680672265</c:v>
                 </c:pt>
               </c:numCache>
@@ -953,6 +1009,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -960,7 +1017,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1089,7 +1145,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$22:$D$26</c:f>
+              <c:f>metrics!$D$54:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1146,7 +1202,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$27:$D$31</c:f>
+              <c:f>metrics!$D$70:$D$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1203,7 +1259,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$32:$D$36</c:f>
+              <c:f>metrics!$D$86:$D$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1525,7 +1581,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$6:$D$10</c:f>
+              <c:f>metrics!$D$11:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1683,6 +1739,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1690,7 +1747,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1844,7 +1900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$6:$D$10</c:f>
+              <c:f>metrics!$D$11:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1890,7 +1946,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$11:$D$15</c:f>
+              <c:f>metrics!$D$27:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1936,7 +1992,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$16:$D$20</c:f>
+              <c:f>metrics!$D$43:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2094,6 +2150,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2101,7 +2158,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4233,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816DF791-3565-4C2A-B7A1-D8086056D11D}">
   <dimension ref="A1:N303"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
@@ -4353,7 +4409,7 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -11865,7 +11921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818B4C76-8770-46BA-BF7E-6B24BFF81621}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
@@ -12283,7 +12339,7 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -12310,7 +12366,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.35">
@@ -12337,7 +12393,7 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.35">
@@ -12434,10 +12490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995A027-CBA2-444C-83FA-6EB946FF890B}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12447,59 +12503,69 @@
     <col min="10" max="10" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" t="s">
         <v>118</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>119</v>
       </c>
-      <c r="O1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">_xlfn.LET(
@@ -12542,45 +12608,149 @@
 )</f>
         <v>0.90793650793650793</v>
       </c>
+      <c r="H2">
+        <f>(2*E2*F2)/(E2+F2)</f>
+        <v>0.85767097966728278</v>
+      </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L2">
         <v>595</v>
       </c>
       <c r="M2">
+        <v>315</v>
+      </c>
+      <c r="N2">
+        <f>L2-M2</f>
+        <v>280</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>101</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>103</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>202</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>204</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" cm="1">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47" cm="1">
         <f t="array" ref="D3">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,2,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,7,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,2,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,7,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/M2
+)</f>
+        <v>0.83174603174603179</v>
+      </c>
+      <c r="E3" s="47" cm="1">
+        <f t="array" ref="E3">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,2,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,7,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,2,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,7,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="47" cm="1">
+        <f t="array" ref="F3">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,2,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,7,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,2,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,7,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="G3" s="47" cm="1">
+        <f t="array" ref="G3">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,2,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,7,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,2,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,7,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.8342857142857143</v>
+      </c>
+      <c r="H3" s="47">
+        <f t="shared" ref="H3:H4" si="0">(2*E3*F3)/(E3+F3)</f>
+        <v>0.81403508771929833</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" cm="1">
+        <f t="array" ref="D4">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,12,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,17,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,12,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,17,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/N2
+)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="E4" s="10" cm="1">
+        <f t="array" ref="E4">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,12,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,17,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,12,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,17,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" cm="1">
+        <f t="array" ref="F4">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,12,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,17,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,12,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,17,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="G4" s="10" cm="1">
+        <f t="array" ref="G4">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,12,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,17,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,12,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,17,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.90625</v>
+      </c>
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">_xlfn.LET(
   _xlpm.fRange, _xlfn._xlws.FILTER(results!F103:'results'!F202, MOD(ROW(results!F103:'results'!F202)-103,5)=0),
   _xlpm.iRange, _xlfn._xlws.FILTER(results!I103:'results'!I202, MOD(ROW(results!I103:'results'!I202)-103,5)=0),
   SUM(_xlpm.fRange + _xlpm.iRange)/L2
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E3" cm="1">
-        <f t="array" ref="E3">_xlfn.LET(
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,103,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12590,8 +12760,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">_xlfn.LET(
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,103,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -12601,8 +12771,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">_xlfn.LET(
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,103,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12612,24 +12782,118 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4">_xlfn.LET(
+      <c r="H5">
+        <f>(2*E5*F5)/(E5+F5)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B6" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47" cm="1">
+        <f t="array" ref="D6">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,103,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,108,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,103,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,108,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/M2
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E6" s="47" cm="1">
+        <f t="array" ref="E6">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,103,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,108,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,103,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,108,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="47" cm="1">
+        <f t="array" ref="F6">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,103,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,108,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,103,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,108,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="47" cm="1">
+        <f t="array" ref="G6">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,103,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,108,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,103,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,108,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="47">
+        <f t="shared" ref="H6:H7" si="1">(2*E6*F6)/(E6+F6)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" cm="1">
+        <f t="array" ref="D7">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,113,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,118,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,113,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,118,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/N2
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="10" cm="1">
+        <f t="array" ref="E7">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,113,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,118,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,113,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,118,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" cm="1">
+        <f t="array" ref="F7">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,113,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,118,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,113,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,118,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="10" cm="1">
+        <f t="array" ref="G7">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,113,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,118,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,113,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,118,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">_xlfn.LET(
   _xlpm.fRange, _xlfn._xlws.FILTER(results!F204:'results'!F304, MOD(ROW(results!F204:'results'!F304)-204,5)=0),
   _xlpm.iRange, _xlfn._xlws.FILTER(results!I204:'results'!I304, MOD(ROW(results!I204:'results'!I304)-204,5)=0),
   SUM(_xlpm.fRange + _xlpm.iRange)/L2
 )</f>
         <v>0.60504201680672265</v>
       </c>
-      <c r="E4" cm="1">
-        <f t="array" ref="E4">_xlfn.LET(
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,204,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12639,8 +12903,8 @@
 )</f>
         <v>0.8</v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">_xlfn.LET(
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,204,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -12650,8 +12914,8 @@
 )</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">_xlfn.LET(
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,204,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12661,33 +12925,76 @@
 )</f>
         <v>0.95238095238095233</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H8">
+        <f>(2*E8*F8)/(E8+F8)</f>
+        <v>0.3380281690140845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B9" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47" cm="1">
+        <f t="array" ref="D9">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,204,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,209,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,204,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,209,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/M2
+)</f>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="E9" s="47" cm="1">
+        <f t="array" ref="E9">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,204,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,209,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,204,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,209,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="47" cm="1">
+        <f t="array" ref="F9">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,204,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,209,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,204,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,209,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G9" s="47" cm="1">
+        <f t="array" ref="G9">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,204,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,209,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,204,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,209,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="H9" s="47">
+        <f>(2*E9*F9)/(E9+F9)</f>
+        <v>0.55813953488372092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M5" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R10" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" cm="1">
-        <f t="array" ref="D6">_xlfn.LET(
+      <c r="C11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" cm="1">
+        <f t="array" ref="D11">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,6,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -12698,8 +13005,8 @@
 )</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="E6" cm="1">
-        <f t="array" ref="E6">_xlfn.LET(
+      <c r="E11" s="3" cm="1">
+        <f t="array" ref="E11">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,6,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12709,8 +13016,8 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">_xlfn.LET(
+      <c r="F11" s="3" cm="1">
+        <f t="array" ref="F11">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,6,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -12720,8 +13027,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">_xlfn.LET(
+      <c r="G11" s="3" cm="1">
+        <f t="array" ref="G11">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,6,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12731,25 +13038,30 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="M6">
+      <c r="H11" s="3">
+        <f t="shared" ref="H11:H47" si="2">(2*E11*F11)/(E11+F11)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="P11">
         <f>SUM(results!F7,results!F17,results!F27,results!F37,results!F47,results!F57,results!F67,results!F77,results!F87,results!F97)</f>
         <v>232</v>
       </c>
-      <c r="O6">
+      <c r="R11">
         <f>SUM(results!F108,results!F118,results!F128,results!F138,results!F148,results!F158,results!F168,results!F178,results!F188,results!F198)</f>
         <v>140</v>
       </c>
-      <c r="Q6">
+      <c r="T11">
         <f>SUM(results!F209,results!F219,results!F229,results!F239,results!F249,results!F259,results!F269,results!F279,results!F289,results!F299)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" cm="1">
-        <f t="array" ref="D7">_xlfn.LET(
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="3" cm="1">
+        <f t="array" ref="D12">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,3,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -12760,8 +13072,8 @@
 )</f>
         <v>0.85882352941176465</v>
       </c>
-      <c r="E7" cm="1">
-        <f t="array" ref="E7">_xlfn.LET(
+      <c r="E12" s="3" cm="1">
+        <f t="array" ref="E12">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,3,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12771,8 +13083,8 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">_xlfn.LET(
+      <c r="F12" s="3" cm="1">
+        <f t="array" ref="F12">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,3,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -12782,8 +13094,8 @@
 )</f>
         <v>0.8</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">_xlfn.LET(
+      <c r="G12" s="3" cm="1">
+        <f t="array" ref="G12">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,3,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12793,13 +13105,18 @@
 )</f>
         <v>0.91111111111111109</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" cm="1">
-        <f t="array" ref="D8">_xlfn.LET(
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8421052631578948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="3" cm="1">
+        <f t="array" ref="D13">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,4,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -12810,8 +13127,8 @@
 )</f>
         <v>0.85882352941176465</v>
       </c>
-      <c r="E8" cm="1">
-        <f t="array" ref="E8">_xlfn.LET(
+      <c r="E13" s="3" cm="1">
+        <f t="array" ref="E13">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,4,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12821,8 +13138,8 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">_xlfn.LET(
+      <c r="F13" s="3" cm="1">
+        <f t="array" ref="F13">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,4,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -12832,8 +13149,8 @@
 )</f>
         <v>0.8</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">_xlfn.LET(
+      <c r="G13" s="3" cm="1">
+        <f t="array" ref="G13">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,4,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12843,13 +13160,18 @@
 )</f>
         <v>0.91111111111111109</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" cm="1">
-        <f t="array" ref="D9">_xlfn.LET(
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8421052631578948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="3" cm="1">
+        <f t="array" ref="D14">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,25,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -12860,8 +13182,8 @@
 )</f>
         <v>0.83823529411764708</v>
       </c>
-      <c r="E9" cm="1">
-        <f t="array" ref="E9">_xlfn.LET(
+      <c r="E14" s="3" cm="1">
+        <f t="array" ref="E14">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,25,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12871,8 +13193,8 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">_xlfn.LET(
+      <c r="F14" s="3" cm="1">
+        <f t="array" ref="F14">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,25,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -12882,8 +13204,8 @@
 )</f>
         <v>0.75</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">_xlfn.LET(
+      <c r="G14" s="3" cm="1">
+        <f t="array" ref="G14">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,25,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12893,13 +13215,19 @@
 )</f>
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" cm="1">
-        <f t="array" ref="D10">_xlfn.LET(
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81355932203389825</v>
+      </c>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="3" cm="1">
+        <f t="array" ref="D15">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,5,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -12910,8 +13238,8 @@
 )</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="E10" cm="1">
-        <f t="array" ref="E10">_xlfn.LET(
+      <c r="E15" s="3" cm="1">
+        <f t="array" ref="E15">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,5,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12921,8 +13249,8 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">_xlfn.LET(
+      <c r="F15" s="3" cm="1">
+        <f t="array" ref="F15">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,5,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -12932,8 +13260,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">_xlfn.LET(
+      <c r="G15" s="3" cm="1">
+        <f t="array" ref="G15">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,5,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12943,16 +13271,454 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="10" cm="1">
+        <f t="array" ref="D16">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,6,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,11,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,6,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,11,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,6,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,11,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E16" s="10" cm="1">
+        <f t="array" ref="E16">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,6,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,11,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,6,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,11,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="10" cm="1">
+        <f t="array" ref="F16">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,6,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,11,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,6,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,11,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" cm="1">
+        <f t="array" ref="G16">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,6,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,11,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,6,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,11,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="10" cm="1">
+        <f t="array" ref="D17">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,3,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,8,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,3,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,8,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,3,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,8,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="E17" s="10" cm="1">
+        <f t="array" ref="E17">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,3,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,8,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,3,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,8,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="10" cm="1">
+        <f t="array" ref="F17">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,3,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,8,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,3,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,8,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="10" cm="1">
+        <f t="array" ref="G17">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,3,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,8,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,3,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,8,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.84</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="2"/>
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="10" cm="1">
+        <f t="array" ref="D18">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,4,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,9,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,4,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,9,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,4,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,9,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="E18" s="10" cm="1">
+        <f t="array" ref="E18">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,4,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,9,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,4,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,9,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="10" cm="1">
+        <f t="array" ref="F18">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,4,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,9,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,4,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,9,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="10" cm="1">
+        <f t="array" ref="G18">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,4,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,9,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,4,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,9,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.84</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="10" cm="1">
+        <f t="array" ref="D19">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,25,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,30,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(4,1,25,20)),INDEX(results!I:I, _xlfn.SEQUENCE(4,1,30,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(4,1,25,20)),INDEX(results!E:E, _xlfn.SEQUENCE(4,1,30,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="E19" s="10" cm="1">
+        <f t="array" ref="E19">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,25,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,30,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(4,1,25,20)),INDEX(results!G:G, _xlfn.SEQUENCE(4,1,30,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F19" s="10" cm="1">
+        <f t="array" ref="F19">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,25,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,30,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(4,1,25,20)),INDEX(results!H:H, _xlfn.SEQUENCE(4,1,30,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="10" cm="1">
+        <f t="array" ref="G19">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(4,1,25,20)),INDEX(results!I:I, _xlfn.SEQUENCE(4,1,30,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(4,1,25,20)),INDEX(results!G:G, _xlfn.SEQUENCE(4,1,30,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.85</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="2"/>
+        <v>0.77419354838709686</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D11" cm="1">
-        <f t="array" ref="D11">_xlfn.LET(
+      <c r="D20" s="10" cm="1">
+        <f t="array" ref="D20">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,5,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,10,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(1,1,5,20)),INDEX(results!I:I, _xlfn.SEQUENCE(1,1,10,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(1,1,5,20)),INDEX(results!E:E, _xlfn.SEQUENCE(1,1,10,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E20" s="10" cm="1">
+        <f t="array" ref="E20">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,5,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,10,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(1,1,5,20)),INDEX(results!G:G, _xlfn.SEQUENCE(1,1,10,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="10" cm="1">
+        <f t="array" ref="F20">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,5,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,10,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(1,1,5,20)),INDEX(results!H:H, _xlfn.SEQUENCE(1,1,10,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" cm="1">
+        <f t="array" ref="G20">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(1,1,5,20)),INDEX(results!I:I, _xlfn.SEQUENCE(1,1,10,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(1,1,5,20)),INDEX(results!G:G, _xlfn.SEQUENCE(1,1,10,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="18" cm="1">
+        <f t="array" ref="D21">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,16,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,21,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,16,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,21,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,16,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,21,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="18" cm="1">
+        <f t="array" ref="E21">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,16,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,21,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,16,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,21,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="18" cm="1">
+        <f t="array" ref="F21">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,16,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,21,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,16,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,21,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="18" cm="1">
+        <f t="array" ref="G21">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,16,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,21,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,16,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,21,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="18" cm="1">
+        <f t="array" ref="D22">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,13,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,18,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,13,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,18,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,13,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,18,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="18" cm="1">
+        <f t="array" ref="E22">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,13,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,18,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,13,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,18,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="18" cm="1">
+        <f t="array" ref="F22">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,13,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,18,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,13,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,18,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="18" cm="1">
+        <f t="array" ref="G22">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,13,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,18,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,13,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,18,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="18" cm="1">
+        <f t="array" ref="D23">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,14,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,19,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,14,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,19,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,14,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,19,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="18" cm="1">
+        <f t="array" ref="E23">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,14,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,19,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,14,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,19,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="18" cm="1">
+        <f t="array" ref="F23">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,14,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,19,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,14,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,19,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="18" cm="1">
+        <f t="array" ref="G23">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,14,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,19,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,14,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,19,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="18" cm="1">
+        <f t="array" ref="D24">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,35,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,40,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(4,1,35,20)),INDEX(results!I:I, _xlfn.SEQUENCE(4,1,40,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(4,1,35,20)),INDEX(results!E:E, _xlfn.SEQUENCE(4,1,40,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E24" s="18" cm="1">
+        <f t="array" ref="E24">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,35,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,40,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(4,1,35,20)),INDEX(results!G:G, _xlfn.SEQUENCE(4,1,40,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="18" cm="1">
+        <f t="array" ref="F24">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,35,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,40,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(4,1,35,20)),INDEX(results!H:H, _xlfn.SEQUENCE(4,1,40,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="G24" s="18" cm="1">
+        <f t="array" ref="G24">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(4,1,35,20)),INDEX(results!I:I, _xlfn.SEQUENCE(4,1,40,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(4,1,35,20)),INDEX(results!G:G, _xlfn.SEQUENCE(4,1,40,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="18">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="18" cm="1">
+        <f t="array" ref="D25">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,15,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,20,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(1,1,15,20)),INDEX(results!I:I, _xlfn.SEQUENCE(1,1,20,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(1,1,15,20)),INDEX(results!E:E, _xlfn.SEQUENCE(1,1,20,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="18" cm="1">
+        <f t="array" ref="E25">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,15,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,20,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(1,1,15,20)),INDEX(results!G:G, _xlfn.SEQUENCE(1,1,20,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="18" cm="1">
+        <f t="array" ref="F25">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,15,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,20,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(1,1,15,20)),INDEX(results!H:H, _xlfn.SEQUENCE(1,1,20,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="18" cm="1">
+        <f t="array" ref="G25">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(1,1,15,20)),INDEX(results!I:I, _xlfn.SEQUENCE(1,1,20,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(1,1,15,20)),INDEX(results!G:G, _xlfn.SEQUENCE(1,1,20,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="3" cm="1">
+        <f t="array" ref="D27">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,107,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -12963,8 +13729,8 @@
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E11" cm="1">
-        <f t="array" ref="E11">_xlfn.LET(
+      <c r="E27" s="3" cm="1">
+        <f t="array" ref="E27">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,107,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12974,8 +13740,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">_xlfn.LET(
+      <c r="F27" s="3" cm="1">
+        <f t="array" ref="F27">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,107,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -12985,8 +13751,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">_xlfn.LET(
+      <c r="G27" s="3" cm="1">
+        <f t="array" ref="G27">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,107,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -12996,13 +13762,18 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" cm="1">
-        <f t="array" ref="D12">_xlfn.LET(
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="3" cm="1">
+        <f t="array" ref="D28">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,104,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13013,8 +13784,8 @@
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E12" cm="1">
-        <f t="array" ref="E12">_xlfn.LET(
+      <c r="E28" s="3" cm="1">
+        <f t="array" ref="E28">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,104,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13024,8 +13795,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">_xlfn.LET(
+      <c r="F28" s="3" cm="1">
+        <f t="array" ref="F28">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,104,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13035,8 +13806,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">_xlfn.LET(
+      <c r="G28" s="3" cm="1">
+        <f t="array" ref="G28">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,104,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13046,13 +13817,18 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" cm="1">
-        <f t="array" ref="D13">_xlfn.LET(
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="3" cm="1">
+        <f t="array" ref="D29">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,105,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13063,8 +13839,8 @@
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E13" cm="1">
-        <f t="array" ref="E13">_xlfn.LET(
+      <c r="E29" s="3" cm="1">
+        <f t="array" ref="E29">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,105,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13074,8 +13850,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">_xlfn.LET(
+      <c r="F29" s="3" cm="1">
+        <f t="array" ref="F29">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,105,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13085,8 +13861,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">_xlfn.LET(
+      <c r="G29" s="3" cm="1">
+        <f t="array" ref="G29">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,105,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13096,13 +13872,18 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" cm="1">
-        <f t="array" ref="D14">_xlfn.LET(
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="3" cm="1">
+        <f t="array" ref="D30">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,126,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13113,8 +13894,8 @@
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E14" cm="1">
-        <f t="array" ref="E14">_xlfn.LET(
+      <c r="E30" s="3" cm="1">
+        <f t="array" ref="E30">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,126,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13124,8 +13905,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">_xlfn.LET(
+      <c r="F30" s="3" cm="1">
+        <f t="array" ref="F30">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,126,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13135,8 +13916,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">_xlfn.LET(
+      <c r="G30" s="3" cm="1">
+        <f t="array" ref="G30">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,126,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13146,13 +13927,18 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" cm="1">
-        <f t="array" ref="D15">_xlfn.LET(
+      <c r="H30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="3" cm="1">
+        <f t="array" ref="D31">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,106,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13163,8 +13949,8 @@
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E15" cm="1">
-        <f t="array" ref="E15">_xlfn.LET(
+      <c r="E31" s="3" cm="1">
+        <f t="array" ref="E31">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,106,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13174,8 +13960,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">_xlfn.LET(
+      <c r="F31" s="3" cm="1">
+        <f t="array" ref="F31">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,106,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13185,8 +13971,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">_xlfn.LET(
+      <c r="G31" s="3" cm="1">
+        <f t="array" ref="G31">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,106,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13196,16 +13982,454 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D32" s="10" cm="1">
+        <f t="array" ref="D32">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,107,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,112,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,107,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,112,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,107,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,112,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E32" s="10" cm="1">
+        <f t="array" ref="E32">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,107,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,112,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,107,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,112,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="10" cm="1">
+        <f t="array" ref="F32">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,107,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,112,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,107,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,112,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="10" cm="1">
+        <f t="array" ref="G32">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,107,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,112,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,107,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,112,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" ref="H32:H41" si="3">(2*E32*F32)/(E32+F32)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="10" cm="1">
+        <f t="array" ref="D33">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,104,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,109,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,104,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,109,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,104,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,109,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E33" s="10" cm="1">
+        <f t="array" ref="E33">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,104,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,109,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,104,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,109,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="10" cm="1">
+        <f t="array" ref="F33">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,104,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,109,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,104,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,109,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="10" cm="1">
+        <f t="array" ref="G33">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,104,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,109,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,104,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,109,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="10" cm="1">
+        <f t="array" ref="D34">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,105,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,110,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,105,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,110,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,105,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,110,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E34" s="10" cm="1">
+        <f t="array" ref="E34">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,105,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,110,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,105,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,110,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="10" cm="1">
+        <f t="array" ref="F34">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,105,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,110,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,105,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,110,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="10" cm="1">
+        <f t="array" ref="G34">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,105,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,110,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,105,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,110,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="10" cm="1">
+        <f t="array" ref="D35">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,126,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,131,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(4,1,126,20)),INDEX(results!I:I, _xlfn.SEQUENCE(4,1,131,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(4,1,126,20)),INDEX(results!E:E, _xlfn.SEQUENCE(4,1,131,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E35" s="10" cm="1">
+        <f t="array" ref="E35">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,126,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,131,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(4,1,126,20)),INDEX(results!G:G, _xlfn.SEQUENCE(4,1,131,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="10" cm="1">
+        <f t="array" ref="F35">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,126,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,131,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(4,1,126,20)),INDEX(results!H:H, _xlfn.SEQUENCE(4,1,131,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="10" cm="1">
+        <f t="array" ref="G35">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(4,1,126,20)),INDEX(results!I:I, _xlfn.SEQUENCE(4,1,131,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(4,1,126,20)),INDEX(results!G:G, _xlfn.SEQUENCE(4,1,131,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D16" cm="1">
-        <f t="array" ref="D16">_xlfn.LET(
+      <c r="D36" s="10" cm="1">
+        <f t="array" ref="D36">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,106,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,111,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(1,1,106,20)),INDEX(results!I:I, _xlfn.SEQUENCE(1,1,111,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(1,1,106,20)),INDEX(results!E:E, _xlfn.SEQUENCE(1,1,111,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E36" s="10" cm="1">
+        <f t="array" ref="E36">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,106,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,111,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(1,1,106,20)),INDEX(results!G:G, _xlfn.SEQUENCE(1,1,111,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="10" cm="1">
+        <f t="array" ref="F36">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,106,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,111,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(1,1,106,20)),INDEX(results!H:H, _xlfn.SEQUENCE(1,1,111,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="10" cm="1">
+        <f t="array" ref="G36">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(1,1,106,20)),INDEX(results!I:I, _xlfn.SEQUENCE(1,1,111,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(1,1,106,20)),INDEX(results!G:G, _xlfn.SEQUENCE(1,1,111,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="18" cm="1">
+        <f t="array" ref="D37">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,117,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,122,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,117,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,122,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,117,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,122,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E37" s="18" cm="1">
+        <f t="array" ref="E37">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,117,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,122,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,117,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,122,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="18" cm="1">
+        <f t="array" ref="F37">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,117,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,122,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,117,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,122,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="18" cm="1">
+        <f t="array" ref="G37">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,117,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,122,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,117,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,122,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="18" cm="1">
+        <f t="array" ref="D38">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,114,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,119,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,114,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,119,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,114,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,119,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E38" s="18" cm="1">
+        <f t="array" ref="E38">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,114,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,119,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,114,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,119,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="18" cm="1">
+        <f t="array" ref="F38">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,114,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,119,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,114,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,119,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="18" cm="1">
+        <f t="array" ref="G38">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,114,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,119,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,114,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,119,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="18" cm="1">
+        <f t="array" ref="D39">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,115,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,120,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,115,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,120,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,115,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,120,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E39" s="18" cm="1">
+        <f t="array" ref="E39">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,115,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,120,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,115,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,120,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F39" s="18" cm="1">
+        <f t="array" ref="F39">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,115,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,120,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,115,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,120,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="18" cm="1">
+        <f t="array" ref="G39">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,115,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,120,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,115,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,120,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="18" cm="1">
+        <f t="array" ref="D40">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,136,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,141,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(4,1,136,20)),INDEX(results!I:I, _xlfn.SEQUENCE(4,1,141,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(4,1,136,20)),INDEX(results!E:E, _xlfn.SEQUENCE(4,1,141,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="18" cm="1">
+        <f t="array" ref="E40">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,136,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,141,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(4,1,136,20)),INDEX(results!G:G, _xlfn.SEQUENCE(4,1,141,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="18" cm="1">
+        <f t="array" ref="F40">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,136,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,141,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(4,1,136,20)),INDEX(results!H:H, _xlfn.SEQUENCE(4,1,141,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="18" cm="1">
+        <f t="array" ref="G40">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(4,1,136,20)),INDEX(results!I:I, _xlfn.SEQUENCE(4,1,141,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(4,1,136,20)),INDEX(results!G:G, _xlfn.SEQUENCE(4,1,141,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="18" cm="1">
+        <f t="array" ref="D41">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,116,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,121,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(1,1,116,20)),INDEX(results!I:I, _xlfn.SEQUENCE(1,1,121,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(1,1,116,20)),INDEX(results!E:E, _xlfn.SEQUENCE(1,1,121,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E41" s="18" cm="1">
+        <f t="array" ref="E41">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,116,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,121,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(1,1,116,20)),INDEX(results!G:G, _xlfn.SEQUENCE(1,1,121,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="18" cm="1">
+        <f t="array" ref="F41">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,116,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,121,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(1,1,116,20)),INDEX(results!H:H, _xlfn.SEQUENCE(1,1,121,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="18" cm="1">
+        <f t="array" ref="G41">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(1,1,116,20)),INDEX(results!I:I, _xlfn.SEQUENCE(1,1,121,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(1,1,116,20)),INDEX(results!G:G, _xlfn.SEQUENCE(1,1,121,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="18">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="3" cm="1">
+        <f t="array" ref="D43">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,208,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13216,8 +14440,8 @@
 )</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="E16" cm="1">
-        <f t="array" ref="E16">_xlfn.LET(
+      <c r="E43" s="3" cm="1">
+        <f t="array" ref="E43">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,208,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13227,8 +14451,8 @@
 )</f>
         <v>0.8</v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">_xlfn.LET(
+      <c r="F43" s="3" cm="1">
+        <f t="array" ref="F43">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,208,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13238,8 +14462,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">_xlfn.LET(
+      <c r="G43" s="3" cm="1">
+        <f t="array" ref="G43">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,208,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13249,13 +14473,18 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" cm="1">
-        <f t="array" ref="D17">_xlfn.LET(
+      <c r="H43" s="3">
+        <f t="shared" si="2"/>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="3" cm="1">
+        <f t="array" ref="D44">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,205,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13266,8 +14495,8 @@
 )</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="E17" cm="1">
-        <f t="array" ref="E17">_xlfn.LET(
+      <c r="E44" s="3" cm="1">
+        <f t="array" ref="E44">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,205,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13277,8 +14506,8 @@
 )</f>
         <v>0.8</v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">_xlfn.LET(
+      <c r="F44" s="3" cm="1">
+        <f t="array" ref="F44">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,205,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13288,8 +14517,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">_xlfn.LET(
+      <c r="G44" s="3" cm="1">
+        <f t="array" ref="G44">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,205,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13299,13 +14528,18 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" cm="1">
-        <f t="array" ref="D18">_xlfn.LET(
+      <c r="H44" s="3">
+        <f t="shared" si="2"/>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="3" cm="1">
+        <f t="array" ref="D45">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,206,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13316,8 +14550,8 @@
 )</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="E18" t="e" cm="1">
-        <f t="array" ref="E18">_xlfn.LET(
+      <c r="E45" s="3" t="e" cm="1">
+        <f t="array" ref="E45">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,206,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13327,8 +14561,8 @@
 )</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">_xlfn.LET(
+      <c r="F45" s="3" cm="1">
+        <f t="array" ref="F45">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,206,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13338,8 +14572,8 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">_xlfn.LET(
+      <c r="G45" s="3" cm="1">
+        <f t="array" ref="G45">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(20,1,206,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13349,13 +14583,18 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" cm="1">
-        <f t="array" ref="D19">_xlfn.LET(
+      <c r="H45" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="3" cm="1">
+        <f t="array" ref="D46">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,227,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13366,8 +14605,8 @@
 )</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="E19" t="e" cm="1">
-        <f t="array" ref="E19">_xlfn.LET(
+      <c r="E46" s="3" t="e" cm="1">
+        <f t="array" ref="E46">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,227,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13377,8 +14616,8 @@
 )</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">_xlfn.LET(
+      <c r="F46" s="3" cm="1">
+        <f t="array" ref="F46">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,227,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13388,8 +14627,8 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">_xlfn.LET(
+      <c r="G46" s="3" cm="1">
+        <f t="array" ref="G46">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(16,1,227,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13399,13 +14638,18 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" cm="1">
-        <f t="array" ref="D20">_xlfn.LET(
+      <c r="H46" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="3" cm="1">
+        <f t="array" ref="D47">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,207,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13416,8 +14660,8 @@
 )</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="E20" t="e" cm="1">
-        <f t="array" ref="E20">_xlfn.LET(
+      <c r="E47" s="3" t="e" cm="1">
+        <f t="array" ref="E47">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,207,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13427,8 +14671,8 @@
 )</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">_xlfn.LET(
+      <c r="F47" s="3" cm="1">
+        <f t="array" ref="F47">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,207,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13438,8 +14682,8 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">_xlfn.LET(
+      <c r="G47" s="3" cm="1">
+        <f t="array" ref="G47">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,207,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13449,19 +14693,240 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="H47" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="10" cm="1">
+        <f t="array" ref="D48">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,208,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,213,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,208,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,213,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,208,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,213,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E48" s="10" cm="1">
+        <f t="array" ref="E48">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,208,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,213,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,208,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,213,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F48" s="10" cm="1">
+        <f t="array" ref="F48">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,208,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,213,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,208,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,213,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
         <v>1</v>
       </c>
-      <c r="D22" cm="1">
-        <f t="array" ref="D22">_xlfn.LET(
+      <c r="G48" s="10" cm="1">
+        <f t="array" ref="G48">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,208,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,213,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,208,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,213,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H48" s="10">
+        <f>(2*E48*F48)/(E48+F48)</f>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="10" cm="1">
+        <f t="array" ref="D49">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,205,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,210,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,205,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,210,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,205,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,210,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E49" s="10" cm="1">
+        <f t="array" ref="E49">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,205,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,210,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,205,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,210,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F49" s="10" cm="1">
+        <f t="array" ref="F49">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,205,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,210,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,205,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,210,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" cm="1">
+        <f t="array" ref="G49">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,205,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,210,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,205,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,210,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" ref="H49:H52" si="4">(2*E49*F49)/(E49+F49)</f>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="10" cm="1">
+        <f t="array" ref="D50">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,206,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,211,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,206,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,211,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(5,1,206,20)),INDEX(results!E:E, _xlfn.SEQUENCE(5,1,211,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E50" s="10" t="e" cm="1">
+        <f t="array" ref="E50">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,206,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,211,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,206,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,211,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F50" s="10" cm="1">
+        <f t="array" ref="F50">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(5,1,206,20)),INDEX(results!F:F, _xlfn.SEQUENCE(5,1,211,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(5,1,206,20)),INDEX(results!H:H, _xlfn.SEQUENCE(5,1,211,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="10" cm="1">
+        <f t="array" ref="G50">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(5,1,206,20)),INDEX(results!I:I, _xlfn.SEQUENCE(5,1,211,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(5,1,206,20)),INDEX(results!G:G, _xlfn.SEQUENCE(5,1,211,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="10" cm="1">
+        <f t="array" ref="D51">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,227,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,232,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(4,1,227,20)),INDEX(results!I:I, _xlfn.SEQUENCE(4,1,232,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(4,1,227,20)),INDEX(results!E:E, _xlfn.SEQUENCE(4,1,232,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E51" s="10" t="e" cm="1">
+        <f t="array" ref="E51">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,227,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,232,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(4,1,227,20)),INDEX(results!G:G, _xlfn.SEQUENCE(4,1,232,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="10" cm="1">
+        <f t="array" ref="F51">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(4,1,227,20)),INDEX(results!F:F, _xlfn.SEQUENCE(4,1,232,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(4,1,227,20)),INDEX(results!H:H, _xlfn.SEQUENCE(4,1,232,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="10" cm="1">
+        <f t="array" ref="G51">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(4,1,227,20)),INDEX(results!I:I, _xlfn.SEQUENCE(4,1,232,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(4,1,227,20)),INDEX(results!G:G, _xlfn.SEQUENCE(4,1,232,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="10" cm="1">
+        <f t="array" ref="D52">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,207,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,212,20))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(1,1,207,20)),INDEX(results!I:I, _xlfn.SEQUENCE(1,1,212,20))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(1,1,207,20)),INDEX(results!E:E, _xlfn.SEQUENCE(1,1,212,20))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E52" s="10" t="e" cm="1">
+        <f t="array" ref="E52">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,207,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,212,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(1,1,207,20)),INDEX(results!G:G, _xlfn.SEQUENCE(1,1,212,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="10" cm="1">
+        <f t="array" ref="F52">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(1,1,207,20)),INDEX(results!F:F, _xlfn.SEQUENCE(1,1,212,20))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(1,1,207,20)),INDEX(results!H:H, _xlfn.SEQUENCE(1,1,212,20))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="10" cm="1">
+        <f t="array" ref="G52">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(1,1,207,20)),INDEX(results!I:I, _xlfn.SEQUENCE(1,1,212,20))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(1,1,207,20)),INDEX(results!G:G, _xlfn.SEQUENCE(1,1,212,20))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H52" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" cm="1">
+        <f t="array" ref="D54">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,2,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13472,8 +14937,8 @@
 )</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="E22" cm="1">
-        <f t="array" ref="E22">_xlfn.LET(
+      <c r="E54" s="3" cm="1">
+        <f t="array" ref="E54">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,2,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13483,8 +14948,8 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">_xlfn.LET(
+      <c r="F54" s="3" cm="1">
+        <f t="array" ref="F54">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,2,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13494,8 +14959,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">_xlfn.LET(
+      <c r="G54" s="3" cm="1">
+        <f t="array" ref="G54">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,2,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13505,13 +14970,18 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
+      <c r="H54" s="3">
+        <f t="shared" ref="H54:H90" si="5">(2*E54*F54)/(E54+F54)</f>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" cm="1">
-        <f t="array" ref="D23">_xlfn.LET(
+      <c r="D55" s="3" cm="1">
+        <f t="array" ref="D55">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,22,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13522,8 +14992,8 @@
 )</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="E23" cm="1">
-        <f t="array" ref="E23">_xlfn.LET(
+      <c r="E55" s="3" cm="1">
+        <f t="array" ref="E55">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,22,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13533,8 +15003,8 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">_xlfn.LET(
+      <c r="F55" s="3" cm="1">
+        <f t="array" ref="F55">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,22,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13544,8 +15014,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">_xlfn.LET(
+      <c r="G55" s="3" cm="1">
+        <f t="array" ref="G55">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,22,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13555,13 +15025,18 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
+      <c r="H55" s="3">
+        <f t="shared" si="5"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D24" cm="1">
-        <f t="array" ref="D24">_xlfn.LET(
+      <c r="D56" s="3" cm="1">
+        <f t="array" ref="D56">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,42,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13572,8 +15047,8 @@
 )</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="E24" cm="1">
-        <f t="array" ref="E24">_xlfn.LET(
+      <c r="E56" s="3" cm="1">
+        <f t="array" ref="E56">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,42,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13583,8 +15058,8 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">_xlfn.LET(
+      <c r="F56" s="3" cm="1">
+        <f t="array" ref="F56">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,42,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13594,8 +15069,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">_xlfn.LET(
+      <c r="G56" s="3" cm="1">
+        <f t="array" ref="G56">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,42,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13605,13 +15080,18 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
+      <c r="H56" s="3">
+        <f t="shared" si="5"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D25" cm="1">
-        <f t="array" ref="D25">_xlfn.LET(
+      <c r="D57" s="3" cm="1">
+        <f t="array" ref="D57">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,62,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13622,8 +15102,8 @@
 )</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="E25" cm="1">
-        <f t="array" ref="E25">_xlfn.LET(
+      <c r="E57" s="3" cm="1">
+        <f t="array" ref="E57">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,62,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13633,8 +15113,8 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">_xlfn.LET(
+      <c r="F57" s="3" cm="1">
+        <f t="array" ref="F57">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,62,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13644,8 +15124,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">_xlfn.LET(
+      <c r="G57" s="3" cm="1">
+        <f t="array" ref="G57">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,62,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13655,13 +15135,18 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
+      <c r="H57" s="3">
+        <f t="shared" si="5"/>
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D26" cm="1">
-        <f t="array" ref="D26">_xlfn.LET(
+      <c r="D58" s="3" cm="1">
+        <f t="array" ref="D58">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,82,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13672,8 +15157,8 @@
 )</f>
         <v>0.58823529411764708</v>
       </c>
-      <c r="E26" cm="1">
-        <f t="array" ref="E26">_xlfn.LET(
+      <c r="E58" s="3" cm="1">
+        <f t="array" ref="E58">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,82,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13683,8 +15168,8 @@
 )</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">_xlfn.LET(
+      <c r="F58" s="3" cm="1">
+        <f t="array" ref="F58">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,82,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13694,8 +15179,8 @@
 )</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">_xlfn.LET(
+      <c r="G58" s="3" cm="1">
+        <f t="array" ref="G58">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,82,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13705,16 +15190,454 @@
 )</f>
         <v>0.98412698412698407</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="H58" s="3">
+        <f t="shared" si="5"/>
+        <v>0.24615384615384617</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D27" cm="1">
-        <f t="array" ref="D27">_xlfn.LET(
+      <c r="D59" s="10" cm="1">
+        <f t="array" ref="D59">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,2,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,2,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,2,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E59" s="10" cm="1">
+        <f t="array" ref="E59">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,2,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,2,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F59" s="10" cm="1">
+        <f t="array" ref="F59">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,2,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,2,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="10" cm="1">
+        <f t="array" ref="G59">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,2,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,2,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H59" s="10">
+        <f>(2*E59*F59)/(E59+F59)</f>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="10" cm="1">
+        <f t="array" ref="D60">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,22,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,22,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,22,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E60" s="10" cm="1">
+        <f t="array" ref="E60">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,22,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,22,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F60" s="10" cm="1">
+        <f t="array" ref="F60">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,22,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,22,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="10" cm="1">
+        <f t="array" ref="G60">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,22,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,22,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H60" s="10">
+        <f t="shared" ref="H60:H63" si="6">(2*E60*F60)/(E60+F60)</f>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="10" cm="1">
+        <f t="array" ref="D61">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,42,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,42,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,42,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E61" s="10" cm="1">
+        <f t="array" ref="E61">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,42,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,42,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F61" s="10" cm="1">
+        <f t="array" ref="F61">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,42,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,42,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G61" s="10" cm="1">
+        <f t="array" ref="G61">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,42,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,42,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="6"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="10" cm="1">
+        <f t="array" ref="D62">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,62,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,62,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,62,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E62" s="10" cm="1">
+        <f t="array" ref="E62">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,62,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,62,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F62" s="10" cm="1">
+        <f t="array" ref="F62">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,62,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,62,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G62" s="10" cm="1">
+        <f t="array" ref="G62">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,62,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,62,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H62" s="10">
+        <f t="shared" si="6"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="10" cm="1">
+        <f t="array" ref="D63">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,82,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,82,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,82,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.60317460317460314</v>
+      </c>
+      <c r="E63" s="10" cm="1">
+        <f t="array" ref="E63">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,82,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,82,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F63" s="10" cm="1">
+        <f t="array" ref="F63">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,82,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,82,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G63" s="10" cm="1">
+        <f t="array" ref="G63">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,82,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,82,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="H63" s="10">
+        <f t="shared" si="6"/>
+        <v>0.24242424242424243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B64" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="18" cm="1">
+        <f t="array" ref="D64">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,12,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,12,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,12,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="E64" s="18" cm="1">
+        <f t="array" ref="E64">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,12,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,12,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F64" s="18" cm="1">
+        <f t="array" ref="F64">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,12,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,12,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="18" cm="1">
+        <f t="array" ref="G64">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,12,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,12,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H64" s="18">
+        <f>(2*E64*F64)/(E64+F64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="18" cm="1">
+        <f t="array" ref="D65">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,32,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,32,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,32,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="E65" s="18" cm="1">
+        <f t="array" ref="E65">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,32,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,32,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F65" s="18" cm="1">
+        <f t="array" ref="F65">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,32,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,32,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G65" s="18" cm="1">
+        <f t="array" ref="G65">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,32,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,32,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="18">
+        <f t="shared" ref="H65:H68" si="7">(2*E65*F65)/(E65+F65)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="18" cm="1">
+        <f t="array" ref="D66">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,52,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,52,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,52,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="18" cm="1">
+        <f t="array" ref="E66">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,52,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,52,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F66" s="18" cm="1">
+        <f t="array" ref="F66">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,52,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,52,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G66" s="18" cm="1">
+        <f t="array" ref="G66">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,52,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,52,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H66" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="18" cm="1">
+        <f t="array" ref="D67">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,72,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,72,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,72,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="E67" s="18" cm="1">
+        <f t="array" ref="E67">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,72,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,72,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F67" s="18" cm="1">
+        <f t="array" ref="F67">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,72,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,72,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="18" cm="1">
+        <f t="array" ref="G67">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,72,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,72,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="18"/>
+      <c r="C68" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="18" cm="1">
+        <f t="array" ref="D68">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,92,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,92,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,92,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E68" s="18" cm="1">
+        <f t="array" ref="E68">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,92,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,92,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F68" s="18" cm="1">
+        <f t="array" ref="F68">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,92,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,92,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G68" s="18" cm="1">
+        <f t="array" ref="G68">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,92,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,92,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H68" s="18">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" cm="1">
+        <f t="array" ref="D70">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,103,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13725,8 +15648,8 @@
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E27" cm="1">
-        <f t="array" ref="E27">_xlfn.LET(
+      <c r="E70" s="3" cm="1">
+        <f t="array" ref="E70">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,103,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13736,8 +15659,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">_xlfn.LET(
+      <c r="F70" s="3" cm="1">
+        <f t="array" ref="F70">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,103,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13747,8 +15670,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27">_xlfn.LET(
+      <c r="G70" s="3" cm="1">
+        <f t="array" ref="G70">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,103,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13758,13 +15681,18 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
+      <c r="H70" s="3">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D28" cm="1">
-        <f t="array" ref="D28">_xlfn.LET(
+      <c r="D71" s="3" cm="1">
+        <f t="array" ref="D71">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,123,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13775,8 +15703,8 @@
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E28" cm="1">
-        <f t="array" ref="E28">_xlfn.LET(
+      <c r="E71" s="3" cm="1">
+        <f t="array" ref="E71">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,123,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13786,8 +15714,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">_xlfn.LET(
+      <c r="F71" s="3" cm="1">
+        <f t="array" ref="F71">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,123,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13797,8 +15725,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G28" cm="1">
-        <f t="array" ref="G28">_xlfn.LET(
+      <c r="G71" s="3" cm="1">
+        <f t="array" ref="G71">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,123,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13808,13 +15736,18 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
+      <c r="H71" s="3">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D29" cm="1">
-        <f t="array" ref="D29">_xlfn.LET(
+      <c r="D72" s="3" cm="1">
+        <f t="array" ref="D72">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,143,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13825,8 +15758,8 @@
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E29" cm="1">
-        <f t="array" ref="E29">_xlfn.LET(
+      <c r="E72" s="3" cm="1">
+        <f t="array" ref="E72">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,143,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13836,8 +15769,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">_xlfn.LET(
+      <c r="F72" s="3" cm="1">
+        <f t="array" ref="F72">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,143,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13847,8 +15780,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G29" cm="1">
-        <f t="array" ref="G29">_xlfn.LET(
+      <c r="G72" s="3" cm="1">
+        <f t="array" ref="G72">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,143,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13858,13 +15791,18 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
+      <c r="H72" s="3">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D30" cm="1">
-        <f t="array" ref="D30">_xlfn.LET(
+      <c r="D73" s="3" cm="1">
+        <f t="array" ref="D73">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,163,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13875,8 +15813,8 @@
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E30" cm="1">
-        <f t="array" ref="E30">_xlfn.LET(
+      <c r="E73" s="3" cm="1">
+        <f t="array" ref="E73">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,163,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13886,8 +15824,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">_xlfn.LET(
+      <c r="F73" s="3" cm="1">
+        <f t="array" ref="F73">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,163,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13897,8 +15835,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G30" cm="1">
-        <f t="array" ref="G30">_xlfn.LET(
+      <c r="G73" s="3" cm="1">
+        <f t="array" ref="G73">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,163,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13908,13 +15846,18 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
+      <c r="H73" s="3">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D31" cm="1">
-        <f t="array" ref="D31">_xlfn.LET(
+      <c r="D74" s="3" cm="1">
+        <f t="array" ref="D74">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,183,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13925,8 +15868,8 @@
 )</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="E31" cm="1">
-        <f t="array" ref="E31">_xlfn.LET(
+      <c r="E74" s="3" cm="1">
+        <f t="array" ref="E74">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,183,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13936,8 +15879,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">_xlfn.LET(
+      <c r="F74" s="3" cm="1">
+        <f t="array" ref="F74">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,183,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -13947,8 +15890,8 @@
 )</f>
         <v>0.5</v>
       </c>
-      <c r="G31" cm="1">
-        <f t="array" ref="G31">_xlfn.LET(
+      <c r="G74" s="3" cm="1">
+        <f t="array" ref="G74">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,183,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13958,16 +15901,454 @@
 )</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="H74" s="3">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D32" cm="1">
-        <f t="array" ref="D32">_xlfn.LET(
+      <c r="D75" s="10" cm="1">
+        <f t="array" ref="D75">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,103,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,103,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,103,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E75" s="10" cm="1">
+        <f t="array" ref="E75">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,103,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,103,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F75" s="10" cm="1">
+        <f t="array" ref="F75">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,103,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,103,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="10" cm="1">
+        <f t="array" ref="G75">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,103,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,103,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="10">
+        <f>(2*E75*F75)/(E75+F75)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="10" cm="1">
+        <f t="array" ref="D76">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,123,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,123,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,123,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E76" s="10" cm="1">
+        <f t="array" ref="E76">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,123,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,123,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F76" s="10" cm="1">
+        <f t="array" ref="F76">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,123,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,123,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="10" cm="1">
+        <f t="array" ref="G76">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,123,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,123,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" ref="H76:H79" si="8">(2*E76*F76)/(E76+F76)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="10" cm="1">
+        <f t="array" ref="D77">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,143,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,143,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,143,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E77" s="10" cm="1">
+        <f t="array" ref="E77">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,143,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,143,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F77" s="10" cm="1">
+        <f t="array" ref="F77">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,143,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,143,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="10" cm="1">
+        <f t="array" ref="G77">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,143,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,143,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H77" s="10">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="10" cm="1">
+        <f t="array" ref="D78">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,163,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,163,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,163,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E78" s="10" cm="1">
+        <f t="array" ref="E78">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,163,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,163,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F78" s="10" cm="1">
+        <f t="array" ref="F78">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,163,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,163,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="10" cm="1">
+        <f t="array" ref="G78">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,163,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,163,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H78" s="10">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="10" cm="1">
+        <f t="array" ref="D79">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,183,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,183,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,183,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E79" s="10" cm="1">
+        <f t="array" ref="E79">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,183,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,183,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F79" s="10" cm="1">
+        <f t="array" ref="F79">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,183,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,183,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="10" cm="1">
+        <f t="array" ref="G79">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,183,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,183,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H79" s="10">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="18" cm="1">
+        <f t="array" ref="D80">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,113,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,113,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,113,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E80" s="18" cm="1">
+        <f t="array" ref="E80">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,113,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,113,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F80" s="18" cm="1">
+        <f t="array" ref="F80">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,113,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,113,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="18" cm="1">
+        <f t="array" ref="G80">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,113,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,113,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H80" s="18">
+        <f>(2*E80*F80)/(E80+F80)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="18" cm="1">
+        <f t="array" ref="D81">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,133,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,133,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,133,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E81" s="18" cm="1">
+        <f t="array" ref="E81">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,133,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,133,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F81" s="18" cm="1">
+        <f t="array" ref="F81">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,133,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,133,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G81" s="18" cm="1">
+        <f t="array" ref="G81">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,133,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,133,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H81" s="18">
+        <f t="shared" ref="H81:H84" si="9">(2*E81*F81)/(E81+F81)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B82" s="18"/>
+      <c r="C82" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="18" cm="1">
+        <f t="array" ref="D82">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,153,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,153,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,153,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E82" s="18" cm="1">
+        <f t="array" ref="E82">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,153,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,153,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F82" s="18" cm="1">
+        <f t="array" ref="F82">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,153,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,153,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G82" s="18" cm="1">
+        <f t="array" ref="G82">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,153,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,153,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H82" s="18">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="18" cm="1">
+        <f t="array" ref="D83">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,173,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,173,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,173,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E83" s="18" cm="1">
+        <f t="array" ref="E83">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,173,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,173,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F83" s="18" cm="1">
+        <f t="array" ref="F83">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,173,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,173,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G83" s="18" cm="1">
+        <f t="array" ref="G83">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,173,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,173,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H83" s="18">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B84" s="18"/>
+      <c r="C84" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="18" cm="1">
+        <f t="array" ref="D84">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,193,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,193,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,193,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E84" s="18" cm="1">
+        <f t="array" ref="E84">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,193,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,193,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F84" s="18" cm="1">
+        <f t="array" ref="F84">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,193,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,193,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="18" cm="1">
+        <f t="array" ref="G84">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,193,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,193,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H84" s="18">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B86" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" cm="1">
+        <f t="array" ref="D86">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,204,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -13978,8 +16359,8 @@
 )</f>
         <v>0.60504201680672265</v>
       </c>
-      <c r="E32" cm="1">
-        <f t="array" ref="E32">_xlfn.LET(
+      <c r="E86" s="3" cm="1">
+        <f t="array" ref="E86">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,204,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -13989,8 +16370,8 @@
 )</f>
         <v>0.8</v>
       </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">_xlfn.LET(
+      <c r="F86" s="3" cm="1">
+        <f t="array" ref="F86">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,204,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -14000,8 +16381,8 @@
 )</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="G32" cm="1">
-        <f t="array" ref="G32">_xlfn.LET(
+      <c r="G86" s="3" cm="1">
+        <f t="array" ref="G86">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,204,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -14011,13 +16392,18 @@
 )</f>
         <v>0.95238095238095233</v>
       </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
+      <c r="H86" s="3">
+        <f t="shared" si="5"/>
+        <v>0.3380281690140845</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D33" cm="1">
-        <f t="array" ref="D33">_xlfn.LET(
+      <c r="D87" s="3" cm="1">
+        <f t="array" ref="D87">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,224,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -14028,8 +16414,8 @@
 )</f>
         <v>0.60504201680672265</v>
       </c>
-      <c r="E33" cm="1">
-        <f t="array" ref="E33">_xlfn.LET(
+      <c r="E87" s="3" cm="1">
+        <f t="array" ref="E87">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,224,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -14039,8 +16425,8 @@
 )</f>
         <v>0.8</v>
       </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">_xlfn.LET(
+      <c r="F87" s="3" cm="1">
+        <f t="array" ref="F87">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,224,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -14050,8 +16436,8 @@
 )</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="G33" cm="1">
-        <f t="array" ref="G33">_xlfn.LET(
+      <c r="G87" s="3" cm="1">
+        <f t="array" ref="G87">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,224,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -14061,13 +16447,18 @@
 )</f>
         <v>0.95238095238095233</v>
       </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
+      <c r="H87" s="3">
+        <f t="shared" si="5"/>
+        <v>0.3380281690140845</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D34" cm="1">
-        <f t="array" ref="D34">_xlfn.LET(
+      <c r="D88" s="3" cm="1">
+        <f t="array" ref="D88">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,244,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -14078,8 +16469,8 @@
 )</f>
         <v>0.60504201680672265</v>
       </c>
-      <c r="E34" cm="1">
-        <f t="array" ref="E34">_xlfn.LET(
+      <c r="E88" s="3" cm="1">
+        <f t="array" ref="E88">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,244,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -14089,8 +16480,8 @@
 )</f>
         <v>0.8</v>
       </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">_xlfn.LET(
+      <c r="F88" s="3" cm="1">
+        <f t="array" ref="F88">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,244,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -14100,8 +16491,8 @@
 )</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="G34" cm="1">
-        <f t="array" ref="G34">_xlfn.LET(
+      <c r="G88" s="3" cm="1">
+        <f t="array" ref="G88">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,244,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -14111,13 +16502,18 @@
 )</f>
         <v>0.95238095238095233</v>
       </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
+      <c r="H88" s="3">
+        <f t="shared" si="5"/>
+        <v>0.3380281690140845</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D35" cm="1">
-        <f t="array" ref="D35">_xlfn.LET(
+      <c r="D89" s="3" cm="1">
+        <f t="array" ref="D89">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,264,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -14128,8 +16524,8 @@
 )</f>
         <v>0.60504201680672265</v>
       </c>
-      <c r="E35" cm="1">
-        <f t="array" ref="E35">_xlfn.LET(
+      <c r="E89" s="3" cm="1">
+        <f t="array" ref="E89">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,264,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -14139,8 +16535,8 @@
 )</f>
         <v>0.8</v>
       </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">_xlfn.LET(
+      <c r="F89" s="3" cm="1">
+        <f t="array" ref="F89">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,264,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -14150,8 +16546,8 @@
 )</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="G35" cm="1">
-        <f t="array" ref="G35">_xlfn.LET(
+      <c r="G89" s="3" cm="1">
+        <f t="array" ref="G89">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,264,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -14161,13 +16557,18 @@
 )</f>
         <v>0.95238095238095233</v>
       </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
+      <c r="H89" s="3">
+        <f t="shared" si="5"/>
+        <v>0.3380281690140845</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D36" cm="1">
-        <f t="array" ref="D36">_xlfn.LET(
+      <c r="D90" s="3" cm="1">
+        <f t="array" ref="D90">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,284,5),
   _xlpm.fValues, INDEX(results!F:F, _xlpm.rows),
   _xlpm.iValues, INDEX(results!I:I, _xlpm.rows),
@@ -14178,8 +16579,8 @@
 )</f>
         <v>0.60504201680672265</v>
       </c>
-      <c r="E36" cm="1">
-        <f t="array" ref="E36">_xlfn.LET(
+      <c r="E90" s="3" cm="1">
+        <f t="array" ref="E90">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,284,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -14189,8 +16590,8 @@
 )</f>
         <v>0.8</v>
       </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">_xlfn.LET(
+      <c r="F90" s="3" cm="1">
+        <f t="array" ref="F90">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,284,5),
   _xlpm.rF, INDEX(results!F:F, _xlpm.rows),
   _xlpm.rH, INDEX(results!H:H, _xlpm.rows),
@@ -14200,8 +16601,8 @@
 )</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="G36" cm="1">
-        <f t="array" ref="G36">_xlfn.LET(
+      <c r="G90" s="3" cm="1">
+        <f t="array" ref="G90">_xlfn.LET(
   _xlpm.rows, _xlfn.SEQUENCE(4,1,284,5),
   _xlpm.rI, INDEX(results!I:I, _xlpm.rows),
   _xlpm.rG, INDEX(results!G:G, _xlpm.rows),
@@ -14210,6 +16611,227 @@
   _xlpm.num/_xlpm.denom
 )</f>
         <v>0.95238095238095233</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="5"/>
+        <v>0.3380281690140845</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B91" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="10" cm="1">
+        <f t="array" ref="D91">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,204,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,204,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,204,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="E91" s="10" cm="1">
+        <f t="array" ref="E91">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,204,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,204,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F91" s="10" cm="1">
+        <f t="array" ref="F91">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,204,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,204,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G91" s="10" cm="1">
+        <f t="array" ref="G91">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,204,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,204,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="H91" s="10">
+        <f>(2*E91*F91)/(E91+F91)</f>
+        <v>0.55813953488372092</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B92" s="10"/>
+      <c r="C92" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="10" cm="1">
+        <f t="array" ref="D92">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,224,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,224,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,224,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="E92" s="10" cm="1">
+        <f t="array" ref="E92">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,224,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,224,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F92" s="10" cm="1">
+        <f t="array" ref="F92">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,224,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,224,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G92" s="10" cm="1">
+        <f t="array" ref="G92">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,224,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,224,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="H92" s="10">
+        <f t="shared" ref="H92:H95" si="10">(2*E92*F92)/(E92+F92)</f>
+        <v>0.55813953488372092</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B93" s="10"/>
+      <c r="C93" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="10" cm="1">
+        <f t="array" ref="D93">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,244,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,244,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,244,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="E93" s="10" cm="1">
+        <f t="array" ref="E93">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,244,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,244,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F93" s="10" cm="1">
+        <f t="array" ref="F93">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,244,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,244,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G93" s="10" cm="1">
+        <f t="array" ref="G93">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,244,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,244,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="H93" s="10">
+        <f t="shared" si="10"/>
+        <v>0.55813953488372092</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B94" s="10"/>
+      <c r="C94" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="10" cm="1">
+        <f t="array" ref="D94">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,264,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,264,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,264,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="E94" s="10" cm="1">
+        <f t="array" ref="E94">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,264,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,264,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F94" s="10" cm="1">
+        <f t="array" ref="F94">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,264,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,264,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G94" s="10" cm="1">
+        <f t="array" ref="G94">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,264,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,264,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="H94" s="10">
+        <f t="shared" si="10"/>
+        <v>0.55813953488372092</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B95" s="10"/>
+      <c r="C95" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="10" cm="1">
+        <f t="array" ref="D95">_xlfn.LET(
+  _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,284,5))),
+  _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,284,5))),
+  _xlpm.valuesE, SUM(INDEX(results!E:E, _xlfn.SEQUENCE(2,1,284,5))),
+  SUM(_xlpm.valuesF + _xlpm.valuesI)/(_xlpm.valuesE)
+)</f>
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="E95" s="10" cm="1">
+        <f t="array" ref="E95">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,284,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,284,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesG)
+)</f>
+        <v>0.8</v>
+      </c>
+      <c r="F95" s="10" cm="1">
+        <f t="array" ref="F95">_xlfn.LET(
+ _xlpm.valuesF, SUM(INDEX(results!F:F, _xlfn.SEQUENCE(2,1,284,5))),
+ _xlpm.valuesH, SUM(INDEX(results!H:H, _xlfn.SEQUENCE(2,1,284,5))),
+ _xlpm.valuesF / (_xlpm.valuesF + _xlpm.valuesH)
+)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G95" s="10" cm="1">
+        <f t="array" ref="G95">_xlfn.LET(
+ _xlpm.valuesI, SUM(INDEX(results!I:I, _xlfn.SEQUENCE(2,1,284,5))),
+ _xlpm.valuesG, SUM(INDEX(results!G:G, _xlfn.SEQUENCE(2,1,284,5))),
+ _xlpm.valuesI / (_xlpm.valuesI + _xlpm.valuesG)
+)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="H95" s="10">
+        <f t="shared" si="10"/>
+        <v>0.55813953488372092</v>
       </c>
     </row>
   </sheetData>
@@ -14221,8 +16843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FB626-F218-4B99-B9CF-F14B8A51FAA4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="76" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tool_results/results_analysed_numbers.xlsx
+++ b/tool_results/results_analysed_numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Diplom\Minimal Contracts\Templating\tool_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AA39C3-00D9-47D6-A4DA-1A48D29DBA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580FC96D-EEFD-4261-A405-94FFBACB5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{7EB0B72A-79A8-4C26-A6CB-77D713D26FC7}"/>
   </bookViews>
@@ -737,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-AT"/>
-              <a:t>Overall Accuracy</a:t>
+              <a:t>Overall Accuracy (Function)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,7 +792,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -806,12 +806,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-AA98-482E-BBD9-23E9C79A3208}"/>
+                <c16:uniqueId val="{00000004-C653-445B-B15A-4BA240FFAE52}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -825,7 +825,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-AA98-482E-BBD9-23E9C79A3208}"/>
+                <c16:uniqueId val="{00000005-C653-445B-B15A-4BA240FFAE52}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -839,36 +839,24 @@
                 <c:v>Slither</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>Confuzzius</c:v>
+                <c:v>ConFuzzius</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$2:$D$8</c:f>
+              <c:f>(metrics!$D$3,metrics!$D$6,metrics!$D$9)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.87058823529411766</c:v>
+                  <c:v>0.83174603174603179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83174603174603179</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91428571428571426</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.76470588235294112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60504201680672265</c:v>
+                  <c:v>0.69841269841269837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,6 +935,8 @@
         <c:axId val="46785855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -998,6 +988,7 @@
         <c:crossAx val="46800735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1086,7 +1077,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-AT"/>
-              <a:t>Accuracy</a:t>
+              <a:t>Accuracy (Function)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1117,10 +1108,6 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1145,24 +1132,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$54:$D$58</c:f>
+              <c:f>metrics!$D$59:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.60317460317460314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,24 +1189,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$70:$D$74</c:f>
+              <c:f>metrics!$D$75:$D$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,24 +1246,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$86:$D$90</c:f>
+              <c:f>metrics!$D$91:$D$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.60504201680672265</c:v>
+                  <c:v>0.69841269841269837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60504201680672265</c:v>
+                  <c:v>0.69841269841269837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60504201680672265</c:v>
+                  <c:v>0.69841269841269837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60504201680672265</c:v>
+                  <c:v>0.69841269841269837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60504201680672265</c:v>
+                  <c:v>0.69841269841269837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,6 +1377,8 @@
         <c:axId val="388292703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1505,7 +1494,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-AT"/>
-              <a:t>Accuracy Mythril</a:t>
+              <a:t>Accuracy Mythril (Function)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1581,24 +1570,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$11:$D$15</c:f>
+              <c:f>metrics!$D$16:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85882352941176465</c:v>
+                  <c:v>0.82222222222222219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85882352941176465</c:v>
+                  <c:v>0.82222222222222219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83823529411764708</c:v>
+                  <c:v>0.80555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,7 +1809,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-AT" baseline="0"/>
-              <a:t> and low-level construct</a:t>
+              <a:t> and low-level construct (Function)</a:t>
             </a:r>
             <a:endParaRPr lang="de-AT"/>
           </a:p>
@@ -1900,24 +1889,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$11:$D$15</c:f>
+              <c:f>metrics!$D$16:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85882352941176465</c:v>
+                  <c:v>0.82222222222222219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85882352941176465</c:v>
+                  <c:v>0.82222222222222219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83823529411764708</c:v>
+                  <c:v>0.80555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,24 +1935,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$27:$D$31</c:f>
+              <c:f>metrics!$D$32:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76470588235294112</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,24 +1981,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>metrics!$D$43:$D$47</c:f>
+              <c:f>metrics!$D$48:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.70588235294117652</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70588235294117652</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52941176470588236</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52941176470588236</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52941176470588236</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,6 +2077,7 @@
         <c:axId val="685532271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2192,14 +2182,1446 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Overall Accuracy (Constructor)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-568C-408B-8FCE-E6C3AEDCE669}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-568C-408B-8FCE-E6C3AEDCE669}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Mythril</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Slither</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(metrics!$D$4,metrics!$D$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.91428571428571426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-568C-408B-8FCE-E6C3AEDCE669}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="46800735"/>
+        <c:axId val="46785855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46800735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46785855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46785855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46800735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Overall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> F1-Score (Function)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4345-43E1-8E5B-47EE06EE6B4F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4345-43E1-8E5B-47EE06EE6B4F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Mythril</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Slither</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>ConFuzzius</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(metrics!$H$3,metrics!$H$6,metrics!$H$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81403508771929833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55813953488372092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4345-43E1-8E5B-47EE06EE6B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747650416"/>
+        <c:axId val="747662416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747650416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747662416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="747662416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747650416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Overall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> F1-Score (Constructor)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5209-4713-9458-1092591C5302}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Mythril</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Slither</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(metrics!$H$4,metrics!$H$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5209-4713-9458-1092591C5302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747650416"/>
+        <c:axId val="747662416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747650416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747662416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="747662416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747650416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Overall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> F1-Score (Function + Constructor)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EFFF-4956-A082-A69173E462FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EFFF-4956-A082-A69173E462FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Mythril f+c</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Slither f+c</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>ConFuzzius f</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(metrics!$H$3,metrics!$H$6,metrics!$H$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81403508771929833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55813953488372092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EFFF-4956-A082-A69173E462FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-EFFF-4956-A082-A69173E462FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EFFF-4956-A082-A69173E462FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Mythril f+c</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Slither f+c</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>ConFuzzius f</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(metrics!$H$4,metrics!$H$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EFFF-4956-A082-A69173E462FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747650416"/>
+        <c:axId val="747662416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747650416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747662416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="747662416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747650416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2312,6 +3734,163 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3319,6 +4898,2018 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3862,15 +7453,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>169460</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>170831</xdr:rowOff>
+      <xdr:colOff>183891</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>169460</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>132491</xdr:rowOff>
+      <xdr:colOff>183891</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>89196</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3898,15 +7489,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>175517</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>144551</xdr:rowOff>
+      <xdr:colOff>189948</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>166955</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>105167</xdr:rowOff>
+      <xdr:colOff>181386</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>61871</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3933,16 +7524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>751138</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>149057</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>682</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>105761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>836</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>135020</xdr:rowOff>
+      <xdr:colOff>15267</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>91724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3962,6 +7553,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182671</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8638E7-D53A-4F30-949A-B034F4A91424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>185702</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196435</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166238</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05DB979A-FE8B-9890-AFBF-B0408AC4861A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>722586</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>733319</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157556</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Diagramm 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F28604F-1762-4554-A266-E6A6D6BF3B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>391733</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Diagramm 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8452AD-BCA8-4883-BAF8-BD3F8644D0C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12493,7 +16234,7 @@
   <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16843,8 +20584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FB626-F218-4B99-B9CF-F14B8A51FAA4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
